--- a/allen/order_diff_result_allen.xlsx
+++ b/allen/order_diff_result_allen.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/course/4490/Jan.29/allen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2152E8FD-1843-426D-87A5-59E2346F039C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0293D19-5C4F-8441-8151-93341BF285EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
+    <workbookView xWindow="12400" yWindow="460" windowWidth="25460" windowHeight="20960" activeTab="4" xr2:uid="{AC1511F3-6BA7-BE48-A015-DD3B5079386A}"/>
   </bookViews>
   <sheets>
-    <sheet name="order diff_10" sheetId="1" r:id="rId1"/>
+    <sheet name="order diff_0.1" sheetId="1" r:id="rId1"/>
     <sheet name="50" sheetId="3" r:id="rId2"/>
-    <sheet name="500" sheetId="4" r:id="rId3"/>
+    <sheet name="100" sheetId="4" r:id="rId3"/>
     <sheet name="1000" sheetId="2" r:id="rId4"/>
     <sheet name="random_forest" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -475,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -708,10 +708,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DFCD7B02-F36F-A646-96E0-40901F3A5B0A}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,7 +750,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1030,39 +1048,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297C771C-02E5-B94B-A122-98B3A6C4731F}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="29.625" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.83203125" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1214,7 @@
       </c>
       <c r="Q2" s="14"/>
       <c r="R2">
-        <v>0.88888888888888795</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S2">
         <v>22</v>
@@ -1209,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.80555555555555503</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="W2">
         <v>0.86111111111111105</v>
@@ -1218,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.86111111111111105</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="Z2">
         <v>0.88888888888888795</v>
@@ -1233,7 +1251,7 @@
         <v>0.86111111111111105</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>0.80555555555555503</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="W3">
         <v>0.83333333333333304</v>
@@ -1300,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0.88888888888888795</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="Z3">
         <v>0.83333333333333304</v>
@@ -1315,7 +1333,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -1363,7 +1381,7 @@
       </c>
       <c r="Q4" s="14"/>
       <c r="R4">
-        <v>0.77777777777777701</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S4" s="7">
         <v>19</v>
@@ -1376,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>0.63888888888888795</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="W4">
         <v>0.75</v>
@@ -1385,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="Z4">
         <v>0.72222222222222199</v>
@@ -1400,7 +1418,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +1463,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S5" s="3">
         <v>17</v>
@@ -1458,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>0.55555555555555503</v>
+        <v>0.75</v>
       </c>
       <c r="W5">
         <v>0.55555555555555503</v>
@@ -1467,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>0.55555555555555503</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="Z5">
         <v>0.58333333333333304</v>
@@ -1482,7 +1500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>0.88888888888888795</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="W6">
         <v>0.91666666666666596</v>
@@ -1564,7 +1582,7 @@
         <v>0.91666666666666596</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1627,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7">
-        <v>0.77777777777777701</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="S7" s="7">
         <v>14</v>
@@ -1631,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>0.86111111111111105</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="Z7">
         <v>0.72222222222222199</v>
@@ -1646,7 +1664,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1709,7 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8">
-        <v>0.80555555555555503</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S8" s="3">
         <v>9</v>
@@ -1704,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>0.83333333333333304</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="W8">
         <v>0.77777777777777701</v>
@@ -1728,7 +1746,7 @@
         <v>0.80555555555555503</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1791,7 @@
       </c>
       <c r="Q9" s="14"/>
       <c r="R9">
-        <v>0.66666666666666596</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="S9" s="7">
         <v>18</v>
@@ -1786,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="W9">
         <v>0.61111111111111105</v>
@@ -1810,7 +1828,7 @@
         <v>0.63888888888888795</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -1855,7 +1873,7 @@
       </c>
       <c r="Q10" s="14"/>
       <c r="R10">
-        <v>0.77777777777777701</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="S10" s="7">
         <v>23</v>
@@ -1868,7 +1886,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>0.61111111111111105</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="W10">
         <v>0.66666666666666596</v>
@@ -1877,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>0.63888888888888795</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="Z10">
         <v>0.72222222222222199</v>
@@ -1892,7 +1910,7 @@
         <v>0.63888888888888795</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1955,7 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11">
-        <v>0.88888888888888795</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S11" s="7">
         <v>10</v>
@@ -1950,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="W11">
         <v>0.77777777777777701</v>
@@ -1959,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>0.86111111111111105</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="Z11">
         <v>0.77777777777777701</v>
@@ -1974,7 +1992,7 @@
         <v>0.63888888888888795</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -2022,7 +2040,7 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12">
-        <v>0.76666666666666605</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S12" s="7">
         <v>8</v>
@@ -2035,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>0.86666666666666603</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="W12">
         <v>0.73333333333333295</v>
@@ -2044,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="Y12">
-        <v>0.73333333333333295</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="Z12">
         <v>0.73333333333333295</v>
@@ -2053,7 +2071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -2098,7 +2116,7 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13">
-        <v>0.4</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="S13" s="7">
         <v>13</v>
@@ -2111,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>0.56666666666666599</v>
+        <v>0.5</v>
       </c>
       <c r="W13">
         <v>0.53333333333333299</v>
@@ -2123,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2186,7 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14">
-        <v>0.80555555555555503</v>
+        <v>0.75</v>
       </c>
       <c r="S14" s="7">
         <v>12</v>
@@ -2190,7 +2208,7 @@
         <v>13</v>
       </c>
       <c r="Y14">
-        <v>0.86111111111111105</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="Z14">
         <v>0.80555555555555503</v>
@@ -2199,7 +2217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -2247,7 +2265,7 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15">
-        <v>0.66666666666666596</v>
+        <v>0.1</v>
       </c>
       <c r="S15" s="7">
         <v>20</v>
@@ -2260,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>0.56666666666666599</v>
+        <v>0.7</v>
       </c>
       <c r="W15">
         <v>0.73333333333333295</v>
@@ -2269,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="Y15">
-        <v>0.76666666666666605</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
         <v>0.76666666666666605</v>
@@ -2278,7 +2296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -2326,7 +2344,7 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16">
-        <v>0.58333333333333304</v>
+        <v>0</v>
       </c>
       <c r="S16" s="9">
         <v>21</v>
@@ -2348,7 +2366,7 @@
         <v>15</v>
       </c>
       <c r="Y16">
-        <v>0.52777777777777701</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="Z16">
         <v>0.41666666666666602</v>
@@ -2363,7 +2381,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -2408,7 +2426,7 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17">
-        <v>0.77777777777777701</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S17" s="9">
         <v>13</v>
@@ -2421,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="V17">
-        <v>0.38888888888888801</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W17">
         <v>0.38888888888888801</v>
@@ -2430,7 +2448,7 @@
         <v>16</v>
       </c>
       <c r="Y17">
-        <v>0.72222222222222199</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
         <v>0.66666666666666596</v>
@@ -2445,7 +2463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -2490,7 +2508,7 @@
       </c>
       <c r="Q18" s="14"/>
       <c r="R18">
-        <v>0.80555555555555503</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="S18" s="7">
         <v>0</v>
@@ -2503,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="V18">
-        <v>0.69444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="W18">
         <v>0.80555555555555503</v>
@@ -2527,7 +2545,7 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -2572,7 +2590,7 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19">
-        <v>0.52777777777777701</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="S19" s="7">
         <v>28</v>
@@ -2594,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="Z19">
         <v>0.63888888888888795</v>
@@ -2609,7 +2627,7 @@
         <v>0.72222222222222199</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2657,7 +2675,7 @@
       </c>
       <c r="Q20" s="14"/>
       <c r="R20">
-        <v>0.66666666666666596</v>
+        <v>0.25</v>
       </c>
       <c r="S20" s="7">
         <v>13</v>
@@ -2670,7 +2688,7 @@
         <v>19</v>
       </c>
       <c r="V20">
-        <v>0.70833333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="W20">
         <v>0.625</v>
@@ -2682,7 +2700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -2727,7 +2745,7 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21">
-        <v>0.47222222222222199</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="S21" s="7">
         <v>7</v>
@@ -2740,7 +2758,7 @@
         <v>20</v>
       </c>
       <c r="V21">
-        <v>0.52777777777777701</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="W21">
         <v>0.44444444444444398</v>
@@ -2749,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="Z21">
         <v>0.44444444444444398</v>
@@ -2764,7 +2782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -2809,7 +2827,7 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22">
-        <v>0.66666666666666596</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
@@ -2823,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="V22">
-        <v>0.80555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="W22">
         <v>0.75</v>
@@ -2832,7 +2850,7 @@
         <v>21</v>
       </c>
       <c r="Y22">
-        <v>0.63888888888888795</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="Z22">
         <v>0.63888888888888795</v>
@@ -2847,7 +2865,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -2892,7 +2910,7 @@
       </c>
       <c r="Q23" s="14"/>
       <c r="R23">
-        <v>0.61111111111111105</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="S23" s="9">
         <f>SUM(E23:N23)</f>
@@ -2906,7 +2924,7 @@
         <v>22</v>
       </c>
       <c r="V23">
-        <v>0.55555555555555503</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="W23">
         <v>0.44444444444444398</v>
@@ -2915,7 +2933,7 @@
         <v>22</v>
       </c>
       <c r="Y23">
-        <v>0.52777777777777701</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="Z23">
         <v>0.55555555555555503</v>
@@ -2930,7 +2948,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -2975,7 +2993,7 @@
       </c>
       <c r="Q24" s="14"/>
       <c r="R24">
-        <v>0.63888888888888795</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="S24" s="9">
         <f>SUM(E24:N24)</f>
@@ -2989,7 +3007,7 @@
         <v>23</v>
       </c>
       <c r="V24">
-        <v>0.61111111111111105</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W24">
         <v>0.55555555555555503</v>
@@ -2998,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="Y24">
-        <v>0.52777777777777701</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="Z24">
         <v>0.5</v>
@@ -3013,7 +3031,7 @@
         <v>0.55555555555555503</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0.88888888888888795</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S25" s="7">
         <v>11</v>
@@ -3071,7 +3089,7 @@
         <v>24</v>
       </c>
       <c r="V25">
-        <v>0.58333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="W25">
         <v>0.86111111111111105</v>
@@ -3080,7 +3098,7 @@
         <v>24</v>
       </c>
       <c r="Y25">
-        <v>0.86111111111111105</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="Z25">
         <v>0.86111111111111105</v>
@@ -3095,7 +3113,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>0.94444444444444398</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="S26" s="7">
         <v>13</v>
@@ -3153,7 +3171,7 @@
         <v>25</v>
       </c>
       <c r="V26">
-        <v>0.55555555555555503</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="W26">
         <v>0.44444444444444398</v>
@@ -3162,7 +3180,7 @@
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>0.91666666666666596</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="Z26">
         <v>0.80555555555555503</v>
@@ -3177,7 +3195,7 @@
         <v>0.86111111111111105</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="S27" s="3">
         <v>25</v>
@@ -3235,7 +3253,7 @@
         <v>26</v>
       </c>
       <c r="V27">
-        <v>0.52777777777777701</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W27">
         <v>0.58333333333333304</v>
@@ -3244,7 +3262,7 @@
         <v>26</v>
       </c>
       <c r="Y27">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="Z27">
         <v>0.66666666666666596</v>
@@ -3259,7 +3277,7 @@
         <v>0.63888888888888795</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <v>0.80555555555555503</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="S28" s="7">
         <v>7</v>
@@ -3317,7 +3335,7 @@
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="W28">
         <v>0.72222222222222199</v>
@@ -3326,7 +3344,7 @@
         <v>27</v>
       </c>
       <c r="Y28">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="Z28">
         <v>0.72222222222222199</v>
@@ -3341,7 +3359,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="R29">
-        <v>0.58333333333333304</v>
+        <v>0.30555555555555503</v>
       </c>
       <c r="S29" s="7">
         <v>28</v>
@@ -3399,7 +3417,7 @@
         <v>28</v>
       </c>
       <c r="V29">
-        <v>0.61111111111111105</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W29">
         <v>0.55555555555555503</v>
@@ -3423,7 +3441,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -3468,7 +3486,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>0.75</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="S30" s="7">
         <v>14</v>
@@ -3481,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="V30">
-        <v>0.77777777777777701</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W30">
         <v>0.69444444444444398</v>
@@ -3490,7 +3508,7 @@
         <v>29</v>
       </c>
       <c r="Y30">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="Z30">
         <v>0.58333333333333304</v>
@@ -3505,7 +3523,7 @@
         <v>0.61111111111111105</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -3550,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>0.80555555555555503</v>
+        <v>0</v>
       </c>
       <c r="S31" s="7">
         <v>8</v>
@@ -3572,7 +3590,7 @@
         <v>30</v>
       </c>
       <c r="Y31">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="Z31">
         <v>0.75</v>
@@ -3587,7 +3605,7 @@
         <v>0.63888888888888795</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -3645,7 +3663,7 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="W32">
         <v>0.83333333333333304</v>
@@ -3669,7 +3687,7 @@
         <v>0.94444444444444398</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="R33">
-        <v>0.86111111111111105</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S33" s="7">
         <v>10</v>
@@ -3736,7 +3754,7 @@
         <v>32</v>
       </c>
       <c r="Y33">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="Z33">
         <v>0.86111111111111105</v>
@@ -3751,7 +3769,7 @@
         <v>0.88888888888888795</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -3796,7 +3814,7 @@
         <v>10</v>
       </c>
       <c r="R34">
-        <v>0.72222222222222199</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="S34" s="7">
         <v>12</v>
@@ -3809,7 +3827,7 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="W34">
         <v>0.69444444444444398</v>
@@ -3833,7 +3851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>11</v>
       </c>
       <c r="R35">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S35" s="7">
         <v>11</v>
@@ -3891,7 +3909,7 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <v>0.47222222222222199</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="W35">
         <v>0.80555555555555503</v>
@@ -3900,7 +3918,7 @@
         <v>34</v>
       </c>
       <c r="Y35">
-        <v>0.69444444444444398</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="Z35">
         <v>0.80555555555555503</v>
@@ -3915,7 +3933,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -3960,7 +3978,7 @@
         <v>12</v>
       </c>
       <c r="R36">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="7">
         <v>16</v>
@@ -3973,7 +3991,7 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>0.44444444444444398</v>
+        <v>0.5</v>
       </c>
       <c r="W36">
         <v>0.47222222222222199</v>
@@ -3982,7 +4000,7 @@
         <v>35</v>
       </c>
       <c r="Y36">
-        <v>0.63888888888888795</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="Z36">
         <v>0.61111111111111105</v>
@@ -3997,7 +4015,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="R37">
-        <v>0.83333333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="S37" s="9">
         <v>20</v>
@@ -4055,7 +4073,7 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="W37">
         <v>0.61111111111111105</v>
@@ -4064,7 +4082,7 @@
         <v>36</v>
       </c>
       <c r="Y37">
-        <v>0.72222222222222199</v>
+        <v>0.75</v>
       </c>
       <c r="Z37">
         <v>0.61111111111111105</v>
@@ -4079,7 +4097,7 @@
         <v>0.77777777777777701</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>14</v>
       </c>
       <c r="R38">
-        <v>0.72222222222222199</v>
+        <v>2.77777777777777E-2</v>
       </c>
       <c r="S38" s="7">
         <v>25</v>
@@ -4152,7 +4170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -4197,7 +4215,7 @@
         <v>15</v>
       </c>
       <c r="R39">
-        <v>0.69444444444444398</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S39" s="7">
         <v>16</v>
@@ -4210,7 +4228,7 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <v>0.58333333333333304</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="W39">
         <v>0.61111111111111105</v>
@@ -4219,7 +4237,7 @@
         <v>38</v>
       </c>
       <c r="Y39">
-        <v>0.72222222222222199</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="Z39">
         <v>0.72222222222222199</v>
@@ -4234,7 +4252,7 @@
         <v>0.69444444444444398</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -4279,7 +4297,7 @@
         <v>16</v>
       </c>
       <c r="R40">
-        <v>0.83333333333333304</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S40" s="7">
         <v>31</v>
@@ -4292,7 +4310,7 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>0.80555555555555503</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="W40">
         <v>0.88888888888888795</v>
@@ -4301,7 +4319,7 @@
         <v>39</v>
       </c>
       <c r="Y40">
-        <v>0.83333333333333304</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="Z40">
         <v>0.86111111111111105</v>
@@ -4316,7 +4334,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="R41">
-        <v>0.86666666666666603</v>
+        <v>0.7</v>
       </c>
       <c r="S41" s="7">
         <v>9</v>
@@ -4377,7 +4395,7 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <v>0.43333333333333302</v>
+        <v>0.6</v>
       </c>
       <c r="W41">
         <v>0.66666666666666596</v>
@@ -4386,7 +4404,7 @@
         <v>40</v>
       </c>
       <c r="Y41">
-        <v>0.73333333333333295</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="Z41">
         <v>0.66666666666666596</v>
@@ -4395,7 +4413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -4420,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="R42">
-        <v>0.56666666666666599</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="S42" t="s">
         <v>56</v>
@@ -4431,14 +4449,20 @@
       <c r="U42" s="30">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>0.76666666666666605</v>
+      </c>
       <c r="X42" s="29">
         <v>41</v>
       </c>
+      <c r="Y42">
+        <v>0.63333333333333297</v>
+      </c>
       <c r="AA42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -4486,7 +4510,7 @@
         <v>19</v>
       </c>
       <c r="R43">
-        <v>0.83333333333333304</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
@@ -4497,21 +4521,27 @@
       <c r="U43" s="30">
         <v>42</v>
       </c>
+      <c r="V43">
+        <v>0.56666666666666599</v>
+      </c>
       <c r="X43" s="29">
         <v>42</v>
       </c>
+      <c r="Y43">
+        <v>0.8</v>
+      </c>
       <c r="AA43">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="R45">
         <f>AVERAGE(R2:R44)</f>
-        <v>0.73584656084656019</v>
+        <v>0.4691798941798937</v>
       </c>
       <c r="V45">
         <f>AVERAGE(V2:V44)</f>
-        <v>0.64868055555555504</v>
+        <v>0.6826719576719571</v>
       </c>
       <c r="W45">
         <f>AVERAGE(W2:W44)</f>
@@ -4519,7 +4549,7 @@
       </c>
       <c r="Y45">
         <f t="shared" ref="Y45:AC45" si="1">AVERAGE(Y2:Y44)</f>
-        <v>0.73078078078078024</v>
+        <v>0.73290598290598241</v>
       </c>
       <c r="Z45">
         <f t="shared" si="1"/>
@@ -4544,39 +4574,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A05F1-7D9C-4A3E-9008-4E1DD69AFCD8}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB11"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="29.625" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.83203125" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4665,8 +4695,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -4696,7 +4726,7 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="34" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="3">
@@ -4710,7 +4740,7 @@
       </c>
       <c r="Q2" s="14"/>
       <c r="R2">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S2">
         <v>22</v>
@@ -4723,32 +4753,20 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W2">
-        <v>0.86111111111111105</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X2" s="29">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z2">
         <v>0.88888888888888795</v>
       </c>
       <c r="AA2" s="31">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC2">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -4778,7 +4796,7 @@
       <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="34" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="3">
@@ -4792,7 +4810,7 @@
       </c>
       <c r="Q3" s="14"/>
       <c r="R3">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S3" s="3">
         <v>10</v>
@@ -4805,32 +4823,20 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W3">
         <v>0.83333333333333304</v>
       </c>
       <c r="X3" s="29">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="Z3">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA3" s="31">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC3">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4" t="s">
@@ -4863,7 +4869,7 @@
       <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="7">
@@ -4890,32 +4896,20 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X4" s="29">
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
-      </c>
-      <c r="Z4">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA4" s="31">
         <v>3</v>
       </c>
-      <c r="AB4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC4">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -4945,7 +4939,7 @@
       <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N5" s="3">
@@ -4959,7 +4953,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5">
-        <v>0.66666666666666596</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S5" s="3">
         <v>17</v>
@@ -4972,32 +4966,20 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W5">
-        <v>0.55555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X5" s="29">
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="Z5">
         <v>0.58333333333333304</v>
       </c>
       <c r="AA5" s="31">
         <v>4</v>
       </c>
-      <c r="AB5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -5027,7 +5009,7 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="34" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="3">
@@ -5041,7 +5023,7 @@
       </c>
       <c r="Q6" s="14"/>
       <c r="R6">
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="S6">
         <v>23</v>
@@ -5054,32 +5036,20 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W6">
-        <v>0.91666666666666596</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X6" s="29">
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z6">
-        <v>0.91666666666666596</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="AA6" s="31">
         <v>5</v>
       </c>
-      <c r="AB6">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC6">
-        <v>0.91666666666666596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
@@ -5109,7 +5079,7 @@
       <c r="L7" s="7">
         <v>2</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="7">
@@ -5123,7 +5093,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S7" s="7">
         <v>14</v>
@@ -5136,32 +5106,20 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W7">
-        <v>0.69444444444444398</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X7" s="29">
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z7">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA7" s="31">
         <v>6</v>
       </c>
-      <c r="AB7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC7">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
@@ -5191,7 +5149,7 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N8" s="3">
@@ -5205,7 +5163,7 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8">
-        <v>0.80555555555555503</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S8" s="3">
         <v>9</v>
@@ -5218,10 +5176,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W8">
-        <v>0.77777777777777701</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X8" s="29">
         <v>7</v>
@@ -5229,21 +5184,12 @@
       <c r="Y8">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z8">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="AA8" s="31">
         <v>7</v>
       </c>
-      <c r="AB8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC8">
-        <v>0.80555555555555503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
@@ -5273,7 +5219,7 @@
       <c r="L9" s="7">
         <v>3</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="35" t="s">
         <v>48</v>
       </c>
       <c r="N9" s="7">
@@ -5300,32 +5246,20 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W9">
         <v>0.61111111111111105</v>
       </c>
       <c r="X9" s="29">
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z9">
-        <v>0.61111111111111105</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="AA9" s="31">
         <v>8</v>
       </c>
-      <c r="AB9">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC9">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
@@ -5355,7 +5289,7 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="7">
@@ -5382,32 +5316,20 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W10">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X10" s="29">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z10">
-        <v>0.72222222222222199</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA10" s="31">
         <v>9</v>
       </c>
-      <c r="AB10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC10">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
@@ -5437,7 +5359,7 @@
       <c r="L11" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="36" t="s">
         <v>52</v>
       </c>
       <c r="N11" s="7">
@@ -5451,7 +5373,7 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S11" s="7">
         <v>10</v>
@@ -5464,32 +5386,20 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
-      </c>
-      <c r="W11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="X11" s="29">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" s="31">
         <v>10</v>
       </c>
-      <c r="AB11">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="AC11">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
@@ -5522,7 +5432,7 @@
       <c r="L12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="37" t="s">
         <v>59</v>
       </c>
       <c r="N12" s="9" t="s">
@@ -5536,7 +5446,7 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12">
-        <v>0.76666666666666605</v>
+        <v>0.8</v>
       </c>
       <c r="S12" s="7">
         <v>8</v>
@@ -5549,26 +5459,20 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="W12">
-        <v>0.73333333333333295</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="X12" s="29">
         <v>11</v>
       </c>
       <c r="Y12">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="Z12">
-        <v>0.73333333333333295</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="AA12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13" t="s">
@@ -5598,7 +5502,7 @@
       <c r="L13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="37" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -5612,7 +5516,7 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13">
-        <v>0.4</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="S13" s="7">
         <v>13</v>
@@ -5625,9 +5529,6 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W13">
         <v>0.53333333333333299</v>
       </c>
       <c r="X13">
@@ -5637,8 +5538,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
@@ -5668,7 +5569,7 @@
       <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N14" s="3">
@@ -5682,7 +5583,7 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S14" s="7">
         <v>12</v>
@@ -5697,24 +5598,18 @@
       <c r="V14">
         <v>0.77777777777777701</v>
       </c>
-      <c r="W14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="X14" s="29">
         <v>13</v>
       </c>
       <c r="Y14">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
@@ -5747,7 +5642,7 @@
       <c r="L15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="38" t="s">
         <v>73</v>
       </c>
       <c r="N15" s="9" t="s">
@@ -5761,7 +5656,7 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15">
-        <v>0.66666666666666596</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S15" s="7">
         <v>20</v>
@@ -5774,26 +5669,20 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W15">
-        <v>0.73333333333333295</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="X15" s="29">
         <v>14</v>
       </c>
       <c r="Y15">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="Z15">
-        <v>0.76666666666666605</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AA15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:29">
+      <c r="A16" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B16" t="s">
@@ -5826,7 +5715,7 @@
       <c r="L16" s="7">
         <v>2</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="36" t="s">
         <v>77</v>
       </c>
       <c r="N16" s="7">
@@ -5840,7 +5729,7 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16">
-        <v>0.58333333333333304</v>
+        <v>0.38888888888888801</v>
       </c>
       <c r="S16" s="9">
         <v>21</v>
@@ -5853,32 +5742,20 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
-      </c>
-      <c r="W16">
-        <v>0.41666666666666602</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X16" s="29">
         <v>15</v>
       </c>
       <c r="Y16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z16">
-        <v>0.41666666666666602</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA16" s="31">
         <v>15</v>
       </c>
-      <c r="AB16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC16">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
         <v>80</v>
       </c>
       <c r="B17" t="s">
@@ -5908,7 +5785,7 @@
       <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="N17" s="9">
@@ -5922,7 +5799,7 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="S17" s="9">
         <v>13</v>
@@ -5935,32 +5812,20 @@
         <v>16</v>
       </c>
       <c r="V17">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="W17">
-        <v>0.38888888888888801</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X17" s="29">
         <v>16</v>
       </c>
       <c r="Y17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z17">
-        <v>0.66666666666666596</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="AA17" s="31">
         <v>16</v>
       </c>
-      <c r="AB17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
         <v>84</v>
       </c>
       <c r="B18" t="s">
@@ -5990,7 +5855,7 @@
       <c r="L18" s="9">
         <v>1</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="38" t="s">
         <v>52</v>
       </c>
       <c r="N18" s="9">
@@ -6017,32 +5882,20 @@
         <v>17</v>
       </c>
       <c r="V18">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W18">
-        <v>0.80555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X18" s="29">
         <v>17</v>
       </c>
       <c r="Y18">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z18">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA18" s="31">
         <v>17</v>
       </c>
-      <c r="AB18">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC18">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
@@ -6072,7 +5925,7 @@
       <c r="L19" s="7">
         <v>2</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="N19" s="7">
@@ -6086,7 +5939,7 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19">
-        <v>0.52777777777777701</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S19" s="7">
         <v>28</v>
@@ -6099,32 +5952,20 @@
         <v>18</v>
       </c>
       <c r="V19">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W19">
-        <v>0.66666666666666596</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="X19" s="29">
         <v>18</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
-      </c>
-      <c r="Z19">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA19" s="31">
         <v>18</v>
       </c>
-      <c r="AB19">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC19">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20" t="s">
@@ -6157,7 +5998,7 @@
       <c r="L20" s="7">
         <v>2</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="37" t="s">
         <v>52</v>
       </c>
       <c r="N20" s="7">
@@ -6184,10 +6025,7 @@
         <v>19</v>
       </c>
       <c r="V20">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W20">
-        <v>0.625</v>
+        <v>0.79166666666666596</v>
       </c>
       <c r="X20">
         <v>19</v>
@@ -6196,8 +6034,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
         <v>91</v>
       </c>
       <c r="B21" t="s">
@@ -6227,7 +6065,7 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="38" t="s">
         <v>92</v>
       </c>
       <c r="N21" s="9">
@@ -6241,7 +6079,7 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21">
-        <v>0.47222222222222199</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S21" s="7">
         <v>7</v>
@@ -6254,10 +6092,7 @@
         <v>20</v>
       </c>
       <c r="V21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W21">
-        <v>0.44444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X21" s="29">
         <v>20</v>
@@ -6265,21 +6100,12 @@
       <c r="Y21">
         <v>0.5</v>
       </c>
-      <c r="Z21">
-        <v>0.44444444444444398</v>
-      </c>
       <c r="AA21" s="31">
         <v>20</v>
       </c>
-      <c r="AB21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B22" t="s">
@@ -6309,7 +6135,7 @@
       <c r="L22" s="9">
         <v>1</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="9" t="s">
         <v>97</v>
       </c>
       <c r="N22" s="9">
@@ -6323,7 +6149,7 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22">
-        <v>0.69444444444444398</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
@@ -6337,32 +6163,20 @@
         <v>21</v>
       </c>
       <c r="V22">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X22" s="29">
         <v>21</v>
       </c>
       <c r="Y22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z22">
-        <v>0.63888888888888795</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA22" s="31">
         <v>21</v>
       </c>
-      <c r="AB22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="AC22">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B23" t="s">
@@ -6392,7 +6206,7 @@
       <c r="L23" s="9">
         <v>1</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="9" t="s">
         <v>98</v>
       </c>
       <c r="N23" s="9">
@@ -6420,32 +6234,20 @@
         <v>22</v>
       </c>
       <c r="V23">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W23">
-        <v>0.44444444444444398</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="29">
         <v>22</v>
       </c>
       <c r="Y23">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z23">
-        <v>0.55555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA23" s="31">
         <v>22</v>
       </c>
-      <c r="AB23">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="AC23">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B24" t="s">
@@ -6475,7 +6277,7 @@
       <c r="L24" s="9">
         <v>2</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="9" t="s">
         <v>43</v>
       </c>
       <c r="N24" s="9">
@@ -6505,30 +6307,18 @@
       <c r="V24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W24">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="X24" s="29">
         <v>23</v>
       </c>
       <c r="Y24">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z24">
-        <v>0.5</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA24" s="31">
         <v>23</v>
       </c>
-      <c r="AB24">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC24">
-        <v>0.55555555555555503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B25" t="s">
@@ -6558,7 +6348,7 @@
       <c r="L25" s="7">
         <v>0</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N25" s="7">
@@ -6572,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0.91666666666666596</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="S25" s="7">
         <v>11</v>
@@ -6585,10 +6375,7 @@
         <v>24</v>
       </c>
       <c r="V25">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W25">
-        <v>0.86111111111111105</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X25" s="29">
         <v>24</v>
@@ -6596,21 +6383,12 @@
       <c r="Y25">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z25">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA25" s="31">
         <v>24</v>
       </c>
-      <c r="AB25">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC25">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B26" t="s">
@@ -6640,7 +6418,7 @@
       <c r="L26" s="7">
         <v>2</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="7" t="s">
         <v>107</v>
       </c>
       <c r="N26" s="7">
@@ -6667,32 +6445,20 @@
         <v>25</v>
       </c>
       <c r="V26">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W26">
-        <v>0.44444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="X26" s="29">
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z26">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA26" s="31">
         <v>25</v>
       </c>
-      <c r="AB26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC26">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B27" t="s">
@@ -6722,7 +6488,7 @@
       <c r="L27" s="3">
         <v>2</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N27" s="3">
@@ -6736,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="S27" s="3">
         <v>25</v>
@@ -6749,32 +6515,20 @@
         <v>26</v>
       </c>
       <c r="V27">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W27">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="X27" s="29">
         <v>26</v>
       </c>
       <c r="Y27">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Z27">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="AA27" s="31">
         <v>26</v>
       </c>
-      <c r="AB27">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC27">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B28" t="s">
@@ -6804,7 +6558,7 @@
       <c r="L28" s="7">
         <v>3</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="7" t="s">
         <v>114</v>
       </c>
       <c r="N28" s="7">
@@ -6818,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S28" s="7">
         <v>7</v>
@@ -6831,32 +6585,20 @@
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W28">
         <v>0.72222222222222199</v>
       </c>
       <c r="X28" s="29">
         <v>27</v>
       </c>
       <c r="Y28">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z28">
-        <v>0.72222222222222199</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="AA28" s="31">
         <v>27</v>
       </c>
-      <c r="AB28">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC28">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B29" t="s">
@@ -6886,7 +6628,7 @@
       <c r="L29" s="7">
         <v>2</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="7">
@@ -6900,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="R29">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S29" s="7">
         <v>28</v>
@@ -6913,32 +6655,20 @@
         <v>28</v>
       </c>
       <c r="V29">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W29">
-        <v>0.55555555555555503</v>
+        <v>0.5</v>
       </c>
       <c r="X29" s="29">
         <v>28</v>
       </c>
       <c r="Y29">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z29">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA29" s="31">
         <v>28</v>
       </c>
-      <c r="AB29">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC29">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B30" t="s">
@@ -6968,7 +6698,7 @@
       <c r="L30" s="3">
         <v>1</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="M30" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N30" s="3">
@@ -6982,7 +6712,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S30" s="7">
         <v>14</v>
@@ -6995,32 +6725,20 @@
         <v>29</v>
       </c>
       <c r="V30">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="W30">
-        <v>0.69444444444444398</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="X30" s="29">
         <v>29</v>
       </c>
       <c r="Y30">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z30">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA30" s="31">
         <v>29</v>
       </c>
-      <c r="AB30">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC30">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B31" t="s">
@@ -7050,7 +6768,7 @@
       <c r="L31" s="3">
         <v>1</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="34" t="s">
         <v>52</v>
       </c>
       <c r="N31" s="3">
@@ -7064,7 +6782,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>0.80555555555555503</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S31" s="7">
         <v>8</v>
@@ -7077,32 +6795,20 @@
         <v>30</v>
       </c>
       <c r="V31">
-        <v>0.5</v>
-      </c>
-      <c r="W31">
-        <v>0.75</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X31" s="29">
         <v>30</v>
       </c>
       <c r="Y31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z31">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="AA31" s="31">
         <v>30</v>
       </c>
-      <c r="AB31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC31">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B32" t="s">
@@ -7132,7 +6838,7 @@
       <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N32" s="7">
@@ -7146,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>0.83333333333333304</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S32" s="7">
         <v>13</v>
@@ -7159,10 +6865,7 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W32">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X32" s="29">
         <v>31</v>
@@ -7170,21 +6873,12 @@
       <c r="Y32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z32">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="AA32" s="31">
         <v>31</v>
       </c>
-      <c r="AB32">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC32">
-        <v>0.94444444444444398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B33" t="s">
@@ -7214,7 +6908,7 @@
       <c r="L33" s="3">
         <v>1</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N33" s="3">
@@ -7228,7 +6922,7 @@
         <v>9</v>
       </c>
       <c r="R33">
-        <v>0.86111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S33" s="7">
         <v>10</v>
@@ -7243,30 +6937,18 @@
       <c r="V33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="W33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X33" s="29">
         <v>32</v>
       </c>
       <c r="Y33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA33" s="31">
         <v>32</v>
       </c>
-      <c r="AB33">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC33">
-        <v>0.88888888888888795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B34" t="s">
@@ -7296,7 +6978,7 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="27" t="s">
+      <c r="M34" s="9" t="s">
         <v>118</v>
       </c>
       <c r="N34" s="3">
@@ -7310,7 +6992,7 @@
         <v>10</v>
       </c>
       <c r="R34">
-        <v>0.72222222222222199</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S34" s="7">
         <v>12</v>
@@ -7323,32 +7005,20 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <v>0.75</v>
-      </c>
-      <c r="W34">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X34" s="29">
         <v>33</v>
       </c>
       <c r="Y34">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z34">
-        <v>0.69444444444444398</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA34" s="31">
         <v>33</v>
       </c>
-      <c r="AB34">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B35" t="s">
@@ -7378,7 +7048,7 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="3">
@@ -7392,7 +7062,7 @@
         <v>11</v>
       </c>
       <c r="R35">
-        <v>0.75</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="S35" s="7">
         <v>11</v>
@@ -7405,32 +7075,20 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W35">
-        <v>0.80555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="X35" s="29">
         <v>34</v>
       </c>
       <c r="Y35">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z35">
-        <v>0.80555555555555503</v>
+        <v>0.75</v>
       </c>
       <c r="AA35" s="31">
         <v>34</v>
       </c>
-      <c r="AB35">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC35">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B36" t="s">
@@ -7460,7 +7118,7 @@
       <c r="L36" s="7">
         <v>2</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="35" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="7">
@@ -7474,7 +7132,7 @@
         <v>12</v>
       </c>
       <c r="R36">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="S36" s="7">
         <v>16</v>
@@ -7487,32 +7145,20 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="W36">
-        <v>0.47222222222222199</v>
+        <v>0.5</v>
       </c>
       <c r="X36" s="29">
         <v>35</v>
       </c>
       <c r="Y36">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z36">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA36" s="31">
         <v>35</v>
       </c>
-      <c r="AB36">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC36">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B37" t="s">
@@ -7542,7 +7188,7 @@
       <c r="L37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="37" t="s">
         <v>73</v>
       </c>
       <c r="N37" s="7" t="s">
@@ -7556,7 +7202,7 @@
         <v>13</v>
       </c>
       <c r="R37">
-        <v>0.83333333333333304</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S37" s="9">
         <v>20</v>
@@ -7569,32 +7215,20 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
-      </c>
-      <c r="W37">
-        <v>0.61111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X37" s="29">
         <v>36</v>
       </c>
       <c r="Y37">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z37">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA37" s="31">
         <v>36</v>
       </c>
-      <c r="AB37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" t="s">
         <v>129</v>
       </c>
       <c r="B38" t="s">
@@ -7627,7 +7261,7 @@
       <c r="L38" s="3">
         <v>1</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="34" t="s">
         <v>107</v>
       </c>
       <c r="N38" s="3">
@@ -7641,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="R38">
-        <v>0.69444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S38" s="7">
         <v>25</v>
@@ -7656,9 +7290,6 @@
       <c r="V38">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W38">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X38">
         <v>37</v>
       </c>
@@ -7666,8 +7297,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:29">
+      <c r="A39" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B39" t="s">
@@ -7697,7 +7328,7 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="22" t="s">
+      <c r="M39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N39" s="3">
@@ -7724,32 +7355,20 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W39">
-        <v>0.58333333333333304</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X39" s="29">
         <v>38</v>
       </c>
       <c r="Y39">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z39">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA39" s="31">
         <v>38</v>
       </c>
-      <c r="AB39">
-        <v>0.75</v>
-      </c>
-      <c r="AC39">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B40" t="s">
@@ -7779,7 +7398,7 @@
       <c r="L40" s="7">
         <v>2</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N40" s="7">
@@ -7793,7 +7412,7 @@
         <v>16</v>
       </c>
       <c r="R40">
-        <v>0.83333333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="S40" s="7">
         <v>31</v>
@@ -7806,32 +7425,20 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W40">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="X40" s="29">
         <v>39</v>
       </c>
       <c r="Y40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z40">
         <v>0.86111111111111105</v>
       </c>
       <c r="AA40" s="31">
         <v>39</v>
       </c>
-      <c r="AB40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC40">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B41" t="s">
@@ -7864,7 +7471,7 @@
       <c r="L41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="37" t="s">
         <v>59</v>
       </c>
       <c r="N41" s="7" t="s">
@@ -7878,7 +7485,7 @@
         <v>17</v>
       </c>
       <c r="R41">
-        <v>0.86666666666666603</v>
+        <v>0.9</v>
       </c>
       <c r="S41" s="7">
         <v>9</v>
@@ -7891,10 +7498,7 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="W41">
-        <v>0.66666666666666596</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="X41" s="29">
         <v>40</v>
@@ -7902,15 +7506,12 @@
       <c r="Y41">
         <v>0.73333333333333295</v>
       </c>
-      <c r="Z41">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="AA41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+    <row r="42" spans="1:29">
+      <c r="A42" t="s">
         <v>138</v>
       </c>
       <c r="C42" t="s">
@@ -7925,7 +7526,6 @@
       <c r="F42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M42" s="28"/>
       <c r="O42" s="14">
         <v>41</v>
       </c>
@@ -7934,7 +7534,7 @@
         <v>18</v>
       </c>
       <c r="R42">
-        <v>0.56666666666666599</v>
+        <v>0.7</v>
       </c>
       <c r="S42" t="s">
         <v>56</v>
@@ -7945,15 +7545,21 @@
       <c r="U42" s="30">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>0.73333333333333295</v>
+      </c>
       <c r="X42" s="29">
         <v>41</v>
       </c>
+      <c r="Y42">
+        <v>0.63333333333333297</v>
+      </c>
       <c r="AA42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:29">
+      <c r="A43" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B43" t="s">
@@ -7986,7 +7592,7 @@
       <c r="L43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="7" t="s">
@@ -8000,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="R43">
-        <v>0.86666666666666603</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
@@ -8011,41 +7617,47 @@
       <c r="U43" s="30">
         <v>42</v>
       </c>
+      <c r="V43">
+        <v>0.53333333333333299</v>
+      </c>
       <c r="X43" s="29">
         <v>42</v>
       </c>
+      <c r="Y43">
+        <v>0.7</v>
+      </c>
       <c r="AA43">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="R45">
         <f>AVERAGE(R2:R44)</f>
-        <v>0.73730158730158657</v>
+        <v>0.75753968253968185</v>
       </c>
       <c r="V45">
         <f t="shared" ref="V45:AC45" si="1">AVERAGE(V2:V44)</f>
-        <v>0.64868055555555504</v>
-      </c>
-      <c r="W45">
+        <v>0.68366402116402059</v>
+      </c>
+      <c r="W45" t="e">
         <f t="shared" si="1"/>
-        <v>0.6746527777777771</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y45">
         <f t="shared" si="1"/>
-        <v>0.73078078078078024</v>
-      </c>
-      <c r="Z45">
+        <v>0.71310541310541276</v>
+      </c>
+      <c r="Z45" t="e">
         <f t="shared" si="1"/>
-        <v>0.70720720720720642</v>
-      </c>
-      <c r="AB45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" t="e">
         <f t="shared" si="1"/>
-        <v>0.73653198653198593</v>
-      </c>
-      <c r="AC45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC45" t="e">
         <f t="shared" si="1"/>
-        <v>0.69865319865319819</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -8057,39 +7669,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2DDC2E-E1E4-4C3F-98EA-2E377D6ECA0B}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="29.625" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.83203125" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -8178,7 +7790,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -8236,31 +7848,19 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W2">
-        <v>0.86111111111111105</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X2" s="29">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z2">
         <v>0.88888888888888795</v>
       </c>
       <c r="AA2" s="31">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC2">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -8305,7 +7905,7 @@
       </c>
       <c r="Q3" s="14"/>
       <c r="R3">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S3" s="3">
         <v>10</v>
@@ -8318,31 +7918,19 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W3">
         <v>0.83333333333333304</v>
       </c>
       <c r="X3" s="29">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="Z3">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA3" s="31">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC3">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -8403,31 +7991,19 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X4" s="29">
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
-      </c>
-      <c r="Z4">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA4" s="31">
         <v>3</v>
       </c>
-      <c r="AB4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC4">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -8472,7 +8048,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5">
-        <v>0.66666666666666596</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S5" s="3">
         <v>17</v>
@@ -8485,31 +8061,19 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W5">
-        <v>0.55555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X5" s="29">
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="Z5">
         <v>0.58333333333333304</v>
       </c>
       <c r="AA5" s="31">
         <v>4</v>
       </c>
-      <c r="AB5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -8554,7 +8118,7 @@
       </c>
       <c r="Q6" s="14"/>
       <c r="R6">
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="S6">
         <v>23</v>
@@ -8567,31 +8131,19 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W6">
-        <v>0.91666666666666596</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X6" s="29">
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z6">
-        <v>0.91666666666666596</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="AA6" s="31">
         <v>5</v>
       </c>
-      <c r="AB6">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC6">
-        <v>0.91666666666666596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -8636,7 +8188,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S7" s="7">
         <v>14</v>
@@ -8649,31 +8201,19 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W7">
-        <v>0.69444444444444398</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X7" s="29">
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z7">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA7" s="31">
         <v>6</v>
       </c>
-      <c r="AB7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC7">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -8718,7 +8258,7 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8">
-        <v>0.80555555555555503</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S8" s="3">
         <v>9</v>
@@ -8731,10 +8271,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W8">
-        <v>0.77777777777777701</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X8" s="29">
         <v>7</v>
@@ -8742,20 +8279,11 @@
       <c r="Y8">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z8">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="AA8" s="31">
         <v>7</v>
       </c>
-      <c r="AB8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC8">
-        <v>0.80555555555555503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -8813,31 +8341,19 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W9">
         <v>0.61111111111111105</v>
       </c>
       <c r="X9" s="29">
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z9">
-        <v>0.61111111111111105</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="AA9" s="31">
         <v>8</v>
       </c>
-      <c r="AB9">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC9">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -8895,31 +8411,19 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W10">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X10" s="29">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z10">
-        <v>0.72222222222222199</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA10" s="31">
         <v>9</v>
       </c>
-      <c r="AB10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC10">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -8964,7 +8468,7 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S11" s="7">
         <v>10</v>
@@ -8977,31 +8481,19 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
-      </c>
-      <c r="W11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="X11" s="29">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" s="31">
         <v>10</v>
       </c>
-      <c r="AB11">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="AC11">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -9049,7 +8541,7 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12">
-        <v>0.76666666666666605</v>
+        <v>0.8</v>
       </c>
       <c r="S12" s="7">
         <v>8</v>
@@ -9062,25 +8554,19 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="W12">
-        <v>0.73333333333333295</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="X12" s="29">
         <v>11</v>
       </c>
       <c r="Y12">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="Z12">
-        <v>0.73333333333333295</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="AA12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -9125,7 +8611,7 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13">
-        <v>0.4</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="S13" s="7">
         <v>13</v>
@@ -9138,9 +8624,6 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W13">
         <v>0.53333333333333299</v>
       </c>
       <c r="X13">
@@ -9150,7 +8633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -9195,7 +8678,7 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S14" s="7">
         <v>12</v>
@@ -9210,23 +8693,17 @@
       <c r="V14">
         <v>0.77777777777777701</v>
       </c>
-      <c r="W14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="X14" s="29">
         <v>13</v>
       </c>
       <c r="Y14">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -9274,7 +8751,7 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15">
-        <v>0.66666666666666596</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S15" s="7">
         <v>20</v>
@@ -9287,25 +8764,19 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W15">
-        <v>0.73333333333333295</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="X15" s="29">
         <v>14</v>
       </c>
       <c r="Y15">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="Z15">
-        <v>0.76666666666666605</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AA15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -9353,7 +8824,7 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16">
-        <v>0.55555555555555503</v>
+        <v>0.38888888888888801</v>
       </c>
       <c r="S16" s="9">
         <v>21</v>
@@ -9366,31 +8837,19 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
-      </c>
-      <c r="W16">
-        <v>0.41666666666666602</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X16" s="29">
         <v>15</v>
       </c>
       <c r="Y16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z16">
-        <v>0.41666666666666602</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA16" s="31">
         <v>15</v>
       </c>
-      <c r="AB16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC16">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -9435,7 +8894,7 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="S17" s="9">
         <v>13</v>
@@ -9448,31 +8907,19 @@
         <v>16</v>
       </c>
       <c r="V17">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="W17">
-        <v>0.38888888888888801</v>
+        <v>0.5</v>
       </c>
       <c r="X17" s="29">
         <v>16</v>
       </c>
       <c r="Y17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z17">
-        <v>0.66666666666666596</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="AA17" s="31">
         <v>16</v>
       </c>
-      <c r="AB17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -9530,31 +8977,19 @@
         <v>17</v>
       </c>
       <c r="V18">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W18">
-        <v>0.80555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X18" s="29">
         <v>17</v>
       </c>
       <c r="Y18">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z18">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA18" s="31">
         <v>17</v>
       </c>
-      <c r="AB18">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC18">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -9599,7 +9034,7 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19">
-        <v>0.52777777777777701</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S19" s="7">
         <v>28</v>
@@ -9612,31 +9047,19 @@
         <v>18</v>
       </c>
       <c r="V19">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W19">
-        <v>0.66666666666666596</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="X19" s="29">
         <v>18</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
-      </c>
-      <c r="Z19">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA19" s="31">
         <v>18</v>
       </c>
-      <c r="AB19">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC19">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -9697,19 +9120,19 @@
         <v>19</v>
       </c>
       <c r="V20">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W20">
-        <v>0.625</v>
+        <v>0.79166666666666596</v>
       </c>
       <c r="X20">
         <v>19</v>
       </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
       <c r="AA20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -9754,7 +9177,7 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21">
-        <v>0.5</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S21" s="7">
         <v>7</v>
@@ -9767,10 +9190,7 @@
         <v>20</v>
       </c>
       <c r="V21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W21">
-        <v>0.44444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X21" s="29">
         <v>20</v>
@@ -9778,20 +9198,11 @@
       <c r="Y21">
         <v>0.5</v>
       </c>
-      <c r="Z21">
-        <v>0.44444444444444398</v>
-      </c>
       <c r="AA21" s="31">
         <v>20</v>
       </c>
-      <c r="AB21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -9836,7 +9247,7 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22">
-        <v>0.69444444444444398</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
@@ -9850,31 +9261,19 @@
         <v>21</v>
       </c>
       <c r="V22">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X22" s="29">
         <v>21</v>
       </c>
       <c r="Y22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z22">
-        <v>0.63888888888888795</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA22" s="31">
         <v>21</v>
       </c>
-      <c r="AB22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="AC22">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -9933,31 +9332,19 @@
         <v>22</v>
       </c>
       <c r="V23">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W23">
-        <v>0.44444444444444398</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="29">
         <v>22</v>
       </c>
       <c r="Y23">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z23">
-        <v>0.55555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA23" s="31">
         <v>22</v>
       </c>
-      <c r="AB23">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="AC23">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -10018,29 +9405,17 @@
       <c r="V24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W24">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="X24" s="29">
         <v>23</v>
       </c>
       <c r="Y24">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z24">
-        <v>0.5</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA24" s="31">
         <v>23</v>
       </c>
-      <c r="AB24">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC24">
-        <v>0.55555555555555503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -10085,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0.91666666666666596</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="S25" s="7">
         <v>11</v>
@@ -10098,10 +9473,7 @@
         <v>24</v>
       </c>
       <c r="V25">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W25">
-        <v>0.86111111111111105</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X25" s="29">
         <v>24</v>
@@ -10109,20 +9481,11 @@
       <c r="Y25">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z25">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA25" s="31">
         <v>24</v>
       </c>
-      <c r="AB25">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC25">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -10180,31 +9543,19 @@
         <v>25</v>
       </c>
       <c r="V26">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W26">
-        <v>0.44444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="X26" s="29">
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z26">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA26" s="31">
         <v>25</v>
       </c>
-      <c r="AB26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC26">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -10249,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="S27" s="3">
         <v>25</v>
@@ -10262,31 +9613,19 @@
         <v>26</v>
       </c>
       <c r="V27">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W27">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="X27" s="29">
         <v>26</v>
       </c>
       <c r="Y27">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Z27">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="AA27" s="31">
         <v>26</v>
       </c>
-      <c r="AB27">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC27">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -10331,7 +9670,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S28" s="7">
         <v>7</v>
@@ -10344,31 +9683,19 @@
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W28">
         <v>0.72222222222222199</v>
       </c>
       <c r="X28" s="29">
         <v>27</v>
       </c>
       <c r="Y28">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z28">
-        <v>0.72222222222222199</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="AA28" s="31">
         <v>27</v>
       </c>
-      <c r="AB28">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC28">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -10413,7 +9740,7 @@
         <v>5</v>
       </c>
       <c r="R29">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S29" s="7">
         <v>28</v>
@@ -10426,31 +9753,19 @@
         <v>28</v>
       </c>
       <c r="V29">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W29">
-        <v>0.55555555555555503</v>
+        <v>0.5</v>
       </c>
       <c r="X29" s="29">
         <v>28</v>
       </c>
       <c r="Y29">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z29">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA29" s="31">
         <v>28</v>
       </c>
-      <c r="AB29">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC29">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -10495,7 +9810,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S30" s="7">
         <v>14</v>
@@ -10508,31 +9823,19 @@
         <v>29</v>
       </c>
       <c r="V30">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="W30">
-        <v>0.69444444444444398</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="X30" s="29">
         <v>29</v>
       </c>
       <c r="Y30">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z30">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA30" s="31">
         <v>29</v>
       </c>
-      <c r="AB30">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC30">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -10577,7 +9880,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>0.80555555555555503</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S31" s="7">
         <v>8</v>
@@ -10590,31 +9893,19 @@
         <v>30</v>
       </c>
       <c r="V31">
-        <v>0.5</v>
-      </c>
-      <c r="W31">
-        <v>0.75</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X31" s="29">
         <v>30</v>
       </c>
       <c r="Y31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z31">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="AA31" s="31">
         <v>30</v>
       </c>
-      <c r="AB31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC31">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -10659,7 +9950,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>0.83333333333333304</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S32" s="7">
         <v>13</v>
@@ -10672,10 +9963,7 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W32">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X32" s="29">
         <v>31</v>
@@ -10683,20 +9971,11 @@
       <c r="Y32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z32">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="AA32" s="31">
         <v>31</v>
       </c>
-      <c r="AB32">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC32">
-        <v>0.94444444444444398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -10741,7 +10020,7 @@
         <v>9</v>
       </c>
       <c r="R33">
-        <v>0.86111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S33" s="7">
         <v>10</v>
@@ -10756,29 +10035,17 @@
       <c r="V33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="W33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X33" s="29">
         <v>32</v>
       </c>
       <c r="Y33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA33" s="31">
         <v>32</v>
       </c>
-      <c r="AB33">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC33">
-        <v>0.88888888888888795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -10823,7 +10090,7 @@
         <v>10</v>
       </c>
       <c r="R34">
-        <v>0.72222222222222199</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S34" s="7">
         <v>12</v>
@@ -10836,31 +10103,19 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <v>0.75</v>
-      </c>
-      <c r="W34">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X34" s="29">
         <v>33</v>
       </c>
       <c r="Y34">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z34">
-        <v>0.69444444444444398</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA34" s="31">
         <v>33</v>
       </c>
-      <c r="AB34">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -10905,7 +10160,7 @@
         <v>11</v>
       </c>
       <c r="R35">
-        <v>0.75</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="S35" s="7">
         <v>11</v>
@@ -10918,31 +10173,19 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W35">
-        <v>0.80555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="X35" s="29">
         <v>34</v>
       </c>
       <c r="Y35">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z35">
-        <v>0.80555555555555503</v>
+        <v>0.75</v>
       </c>
       <c r="AA35" s="31">
         <v>34</v>
       </c>
-      <c r="AB35">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC35">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -10987,7 +10230,7 @@
         <v>12</v>
       </c>
       <c r="R36">
-        <v>0.72222222222222199</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S36" s="7">
         <v>16</v>
@@ -11000,31 +10243,19 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="W36">
-        <v>0.47222222222222199</v>
+        <v>0.5</v>
       </c>
       <c r="X36" s="29">
         <v>35</v>
       </c>
       <c r="Y36">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z36">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA36" s="31">
         <v>35</v>
       </c>
-      <c r="AB36">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC36">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -11069,7 +10300,7 @@
         <v>13</v>
       </c>
       <c r="R37">
-        <v>0.83333333333333304</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S37" s="9">
         <v>20</v>
@@ -11082,31 +10313,19 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
-      </c>
-      <c r="W37">
-        <v>0.61111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X37" s="29">
         <v>36</v>
       </c>
       <c r="Y37">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z37">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA37" s="31">
         <v>36</v>
       </c>
-      <c r="AB37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -11154,7 +10373,7 @@
         <v>14</v>
       </c>
       <c r="R38">
-        <v>0.69444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S38" s="7">
         <v>25</v>
@@ -11169,9 +10388,6 @@
       <c r="V38">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W38">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X38">
         <v>37</v>
       </c>
@@ -11179,7 +10395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -11237,31 +10453,19 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W39">
-        <v>0.61111111111111105</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X39" s="29">
         <v>38</v>
       </c>
       <c r="Y39">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z39">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA39" s="31">
         <v>38</v>
       </c>
-      <c r="AB39">
-        <v>0.75</v>
-      </c>
-      <c r="AC39">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -11306,7 +10510,7 @@
         <v>16</v>
       </c>
       <c r="R40">
-        <v>0.83333333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="S40" s="7">
         <v>31</v>
@@ -11319,31 +10523,19 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W40">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="X40" s="29">
         <v>39</v>
       </c>
       <c r="Y40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z40">
         <v>0.86111111111111105</v>
       </c>
       <c r="AA40" s="31">
         <v>39</v>
       </c>
-      <c r="AB40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC40">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -11391,7 +10583,7 @@
         <v>17</v>
       </c>
       <c r="R41">
-        <v>0.86666666666666603</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="S41" s="7">
         <v>9</v>
@@ -11404,10 +10596,7 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="W41">
-        <v>0.66666666666666596</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="X41" s="29">
         <v>40</v>
@@ -11415,14 +10604,11 @@
       <c r="Y41">
         <v>0.73333333333333295</v>
       </c>
-      <c r="Z41">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="AA41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -11447,7 +10633,7 @@
         <v>18</v>
       </c>
       <c r="R42">
-        <v>0.56666666666666599</v>
+        <v>0.7</v>
       </c>
       <c r="S42" t="s">
         <v>56</v>
@@ -11458,14 +10644,20 @@
       <c r="U42" s="30">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>0.7</v>
+      </c>
       <c r="X42" s="29">
         <v>41</v>
       </c>
+      <c r="Y42">
+        <v>0.63333333333333297</v>
+      </c>
       <c r="AA42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -11513,7 +10705,7 @@
         <v>19</v>
       </c>
       <c r="R43">
-        <v>0.86666666666666603</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
@@ -11524,41 +10716,47 @@
       <c r="U43" s="30">
         <v>42</v>
       </c>
+      <c r="V43">
+        <v>0.53333333333333299</v>
+      </c>
       <c r="X43" s="29">
         <v>42</v>
       </c>
+      <c r="Y43">
+        <v>0.7</v>
+      </c>
       <c r="AA43">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29">
       <c r="R45">
         <f>AVERAGE(R2:R44)</f>
-        <v>0.73796296296296227</v>
+        <v>0.75701058201058136</v>
       </c>
       <c r="V45">
         <f t="shared" ref="V45:AC45" si="1">AVERAGE(V2:V44)</f>
-        <v>0.64868055555555504</v>
-      </c>
-      <c r="W45">
+        <v>0.6822089947089941</v>
+      </c>
+      <c r="W45" t="e">
         <f t="shared" si="1"/>
-        <v>0.67534722222222165</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y45">
+        <f>AVERAGE(Y2:Y44)</f>
+        <v>0.70777777777777739</v>
+      </c>
+      <c r="Z45" t="e">
         <f t="shared" si="1"/>
-        <v>0.73078078078078024</v>
-      </c>
-      <c r="Z45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" t="e">
         <f t="shared" si="1"/>
-        <v>0.70720720720720642</v>
-      </c>
-      <c r="AB45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC45" t="e">
         <f t="shared" si="1"/>
-        <v>0.73653198653198593</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="1"/>
-        <v>0.69865319865319819</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -11570,39 +10768,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C56DE-E356-49C1-8A81-74DF0076A687}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="29.625" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.83203125" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -11691,7 +10889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -11736,7 +10934,7 @@
       </c>
       <c r="Q2" s="14"/>
       <c r="R2">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S2">
         <v>22</v>
@@ -11749,31 +10947,19 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W2">
-        <v>0.86111111111111105</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X2" s="29">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z2">
         <v>0.88888888888888795</v>
       </c>
       <c r="AA2" s="31">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC2">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -11818,7 +11004,7 @@
       </c>
       <c r="Q3" s="14"/>
       <c r="R3">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S3" s="3">
         <v>10</v>
@@ -11831,31 +11017,19 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W3">
         <v>0.83333333333333304</v>
       </c>
       <c r="X3" s="29">
         <v>2</v>
       </c>
       <c r="Y3">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z3">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA3" s="31">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC3">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -11916,31 +11090,19 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W4">
-        <v>0.75</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X4" s="29">
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.75</v>
-      </c>
-      <c r="Z4">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA4" s="31">
         <v>3</v>
       </c>
-      <c r="AB4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC4">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -11985,7 +11147,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5">
-        <v>0.66666666666666596</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S5" s="3">
         <v>17</v>
@@ -11998,31 +11160,19 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W5">
-        <v>0.55555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X5" s="29">
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="Z5">
         <v>0.58333333333333304</v>
       </c>
       <c r="AA5" s="31">
         <v>4</v>
       </c>
-      <c r="AB5">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -12067,7 +11217,7 @@
       </c>
       <c r="Q6" s="14"/>
       <c r="R6">
-        <v>0.86111111111111105</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="S6">
         <v>23</v>
@@ -12080,31 +11230,19 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W6">
-        <v>0.91666666666666596</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X6" s="29">
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z6">
-        <v>0.91666666666666596</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="AA6" s="31">
         <v>5</v>
       </c>
-      <c r="AB6">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC6">
-        <v>0.91666666666666596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -12149,7 +11287,7 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S7" s="7">
         <v>14</v>
@@ -12162,31 +11300,19 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W7">
-        <v>0.69444444444444398</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X7" s="29">
         <v>6</v>
       </c>
       <c r="Y7">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z7">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="AA7" s="31">
         <v>6</v>
       </c>
-      <c r="AB7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC7">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -12244,10 +11370,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W8">
-        <v>0.77777777777777701</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="X8" s="29">
         <v>7</v>
@@ -12255,20 +11378,11 @@
       <c r="Y8">
         <v>0.77777777777777701</v>
       </c>
-      <c r="Z8">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="AA8" s="31">
         <v>7</v>
       </c>
-      <c r="AB8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC8">
-        <v>0.80555555555555503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -12326,31 +11440,19 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W9">
         <v>0.61111111111111105</v>
       </c>
       <c r="X9" s="29">
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z9">
-        <v>0.61111111111111105</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="AA9" s="31">
         <v>8</v>
       </c>
-      <c r="AB9">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC9">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -12408,31 +11510,19 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W10">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X10" s="29">
         <v>9</v>
       </c>
       <c r="Y10">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z10">
-        <v>0.72222222222222199</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA10" s="31">
         <v>9</v>
       </c>
-      <c r="AB10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC10">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -12477,7 +11567,7 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11">
-        <v>0.88888888888888795</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S11" s="7">
         <v>10</v>
@@ -12490,31 +11580,19 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>0.5</v>
-      </c>
-      <c r="W11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="X11" s="29">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z11">
-        <v>0.77777777777777701</v>
+        <v>0.75</v>
       </c>
       <c r="AA11" s="31">
         <v>10</v>
       </c>
-      <c r="AB11">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="AC11">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -12562,7 +11640,7 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12">
-        <v>0.76666666666666605</v>
+        <v>0.8</v>
       </c>
       <c r="S12" s="7">
         <v>8</v>
@@ -12575,25 +11653,19 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="W12">
-        <v>0.73333333333333295</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="X12" s="29">
         <v>11</v>
       </c>
       <c r="Y12">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="Z12">
-        <v>0.73333333333333295</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="AA12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -12638,7 +11710,7 @@
       </c>
       <c r="Q13" s="14"/>
       <c r="R13">
-        <v>0.4</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S13" s="7">
         <v>13</v>
@@ -12651,9 +11723,6 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W13">
         <v>0.53333333333333299</v>
       </c>
       <c r="X13">
@@ -12663,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -12708,7 +11777,7 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S14" s="7">
         <v>12</v>
@@ -12723,23 +11792,17 @@
       <c r="V14">
         <v>0.77777777777777701</v>
       </c>
-      <c r="W14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="X14" s="29">
         <v>13</v>
       </c>
       <c r="Y14">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -12787,7 +11850,7 @@
       </c>
       <c r="Q15" s="14"/>
       <c r="R15">
-        <v>0.66666666666666596</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S15" s="7">
         <v>20</v>
@@ -12800,25 +11863,19 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="W15">
-        <v>0.73333333333333295</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="X15" s="29">
         <v>14</v>
       </c>
       <c r="Y15">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="Z15">
-        <v>0.76666666666666605</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="AA15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -12866,7 +11923,7 @@
       </c>
       <c r="Q16" s="14"/>
       <c r="R16">
-        <v>0.55555555555555503</v>
+        <v>0.38888888888888801</v>
       </c>
       <c r="S16" s="9">
         <v>21</v>
@@ -12879,31 +11936,19 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>0.5</v>
-      </c>
-      <c r="W16">
-        <v>0.41666666666666602</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X16" s="29">
         <v>15</v>
       </c>
       <c r="Y16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z16">
-        <v>0.41666666666666602</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA16" s="31">
         <v>15</v>
       </c>
-      <c r="AB16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC16">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -12948,7 +11993,7 @@
       </c>
       <c r="Q17" s="14"/>
       <c r="R17">
-        <v>0.77777777777777701</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S17" s="9">
         <v>13</v>
@@ -12961,31 +12006,19 @@
         <v>16</v>
       </c>
       <c r="V17">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="W17">
-        <v>0.38888888888888801</v>
+        <v>0.5</v>
       </c>
       <c r="X17" s="29">
         <v>16</v>
       </c>
       <c r="Y17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z17">
-        <v>0.66666666666666596</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="AA17" s="31">
         <v>16</v>
       </c>
-      <c r="AB17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -13043,31 +12076,19 @@
         <v>17</v>
       </c>
       <c r="V18">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W18">
-        <v>0.80555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X18" s="29">
         <v>17</v>
       </c>
       <c r="Y18">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z18">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA18" s="31">
         <v>17</v>
       </c>
-      <c r="AB18">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AC18">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -13112,7 +12133,7 @@
       </c>
       <c r="Q19" s="14"/>
       <c r="R19">
-        <v>0.52777777777777701</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S19" s="7">
         <v>28</v>
@@ -13125,31 +12146,19 @@
         <v>18</v>
       </c>
       <c r="V19">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W19">
-        <v>0.66666666666666596</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="X19" s="29">
         <v>18</v>
       </c>
       <c r="Y19">
-        <v>0.75</v>
-      </c>
-      <c r="Z19">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA19" s="31">
         <v>18</v>
       </c>
-      <c r="AB19">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC19">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -13210,19 +12219,19 @@
         <v>19</v>
       </c>
       <c r="V20">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W20">
-        <v>0.625</v>
+        <v>0.79166666666666596</v>
       </c>
       <c r="X20">
         <v>19</v>
       </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
       <c r="AA20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -13267,7 +12276,7 @@
       </c>
       <c r="Q21" s="14"/>
       <c r="R21">
-        <v>0.5</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S21" s="7">
         <v>7</v>
@@ -13280,31 +12289,16 @@
         <v>20</v>
       </c>
       <c r="V21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W21">
-        <v>0.44444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="X21" s="29">
         <v>20</v>
       </c>
-      <c r="Y21">
-        <v>0.5</v>
-      </c>
-      <c r="Z21">
-        <v>0.44444444444444398</v>
-      </c>
       <c r="AA21" s="31">
         <v>20</v>
       </c>
-      <c r="AB21">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -13349,7 +12343,7 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22">
-        <v>0.69444444444444398</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
@@ -13363,31 +12357,19 @@
         <v>21</v>
       </c>
       <c r="V22">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="X22" s="29">
         <v>21</v>
       </c>
       <c r="Y22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z22">
-        <v>0.63888888888888795</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA22" s="31">
         <v>21</v>
       </c>
-      <c r="AB22">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="AC22">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -13446,31 +12428,19 @@
         <v>22</v>
       </c>
       <c r="V23">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W23">
-        <v>0.44444444444444398</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="29">
         <v>22</v>
       </c>
       <c r="Y23">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z23">
-        <v>0.55555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA23" s="31">
         <v>22</v>
       </c>
-      <c r="AB23">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="AC23">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -13531,29 +12501,17 @@
       <c r="V24">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W24">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="X24" s="29">
         <v>23</v>
       </c>
       <c r="Y24">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="Z24">
-        <v>0.5</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="AA24" s="31">
         <v>23</v>
       </c>
-      <c r="AB24">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC24">
-        <v>0.55555555555555503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -13611,10 +12569,7 @@
         <v>24</v>
       </c>
       <c r="V25">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W25">
-        <v>0.86111111111111105</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X25" s="29">
         <v>24</v>
@@ -13622,20 +12577,11 @@
       <c r="Y25">
         <v>0.86111111111111105</v>
       </c>
-      <c r="Z25">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA25" s="31">
         <v>24</v>
       </c>
-      <c r="AB25">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC25">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -13680,7 +12626,7 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>0.94444444444444398</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="S26" s="7">
         <v>13</v>
@@ -13693,31 +12639,19 @@
         <v>25</v>
       </c>
       <c r="V26">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W26">
-        <v>0.44444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="X26" s="29">
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z26">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="AA26" s="31">
         <v>25</v>
       </c>
-      <c r="AB26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC26">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -13762,7 +12696,7 @@
         <v>3</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="S27" s="3">
         <v>25</v>
@@ -13775,31 +12709,19 @@
         <v>26</v>
       </c>
       <c r="V27">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W27">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="X27" s="29">
         <v>26</v>
       </c>
       <c r="Y27">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Z27">
-        <v>0.66666666666666596</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="AA27" s="31">
         <v>26</v>
       </c>
-      <c r="AB27">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC27">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -13844,7 +12766,7 @@
         <v>4</v>
       </c>
       <c r="R28">
-        <v>0.80555555555555503</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S28" s="7">
         <v>7</v>
@@ -13857,31 +12779,19 @@
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W28">
         <v>0.72222222222222199</v>
       </c>
       <c r="X28" s="29">
         <v>27</v>
       </c>
       <c r="Y28">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z28">
-        <v>0.72222222222222199</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="AA28" s="31">
         <v>27</v>
       </c>
-      <c r="AB28">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC28">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -13926,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="R29">
-        <v>0.58333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="S29" s="7">
         <v>28</v>
@@ -13939,31 +12849,19 @@
         <v>28</v>
       </c>
       <c r="V29">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W29">
-        <v>0.55555555555555503</v>
+        <v>0.5</v>
       </c>
       <c r="X29" s="29">
         <v>28</v>
       </c>
       <c r="Y29">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z29">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA29" s="31">
         <v>28</v>
       </c>
-      <c r="AB29">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC29">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -14008,7 +12906,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>0.75</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S30" s="7">
         <v>14</v>
@@ -14021,31 +12919,19 @@
         <v>29</v>
       </c>
       <c r="V30">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="W30">
-        <v>0.69444444444444398</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="X30" s="29">
         <v>29</v>
       </c>
       <c r="Y30">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z30">
-        <v>0.58333333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA30" s="31">
         <v>29</v>
       </c>
-      <c r="AB30">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC30">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -14090,7 +12976,7 @@
         <v>7</v>
       </c>
       <c r="R31">
-        <v>0.80555555555555503</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S31" s="7">
         <v>8</v>
@@ -14103,31 +12989,19 @@
         <v>30</v>
       </c>
       <c r="V31">
-        <v>0.5</v>
-      </c>
-      <c r="W31">
-        <v>0.75</v>
+        <v>0.52777777777777701</v>
       </c>
       <c r="X31" s="29">
         <v>30</v>
       </c>
       <c r="Y31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z31">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="AA31" s="31">
         <v>30</v>
       </c>
-      <c r="AB31">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC31">
-        <v>0.63888888888888795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -14172,7 +13046,7 @@
         <v>8</v>
       </c>
       <c r="R32">
-        <v>0.83333333333333304</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="S32" s="7">
         <v>13</v>
@@ -14185,10 +13059,7 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W32">
-        <v>0.83333333333333304</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="X32" s="29">
         <v>31</v>
@@ -14196,20 +13067,11 @@
       <c r="Y32">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z32">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="AA32" s="31">
         <v>31</v>
       </c>
-      <c r="AB32">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC32">
-        <v>0.94444444444444398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -14269,29 +13131,17 @@
       <c r="V33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="W33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X33" s="29">
         <v>32</v>
       </c>
       <c r="Y33">
         <v>0.88888888888888795</v>
       </c>
-      <c r="Z33">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA33" s="31">
         <v>32</v>
       </c>
-      <c r="AB33">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC33">
-        <v>0.88888888888888795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -14336,7 +13186,7 @@
         <v>10</v>
       </c>
       <c r="R34">
-        <v>0.72222222222222199</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="S34" s="7">
         <v>12</v>
@@ -14349,31 +13199,19 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <v>0.75</v>
-      </c>
-      <c r="W34">
-        <v>0.69444444444444398</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="X34" s="29">
         <v>33</v>
       </c>
       <c r="Y34">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z34">
-        <v>0.69444444444444398</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="AA34" s="31">
         <v>33</v>
       </c>
-      <c r="AB34">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -14418,7 +13256,7 @@
         <v>11</v>
       </c>
       <c r="R35">
-        <v>0.75</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="S35" s="7">
         <v>11</v>
@@ -14431,31 +13269,19 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="W35">
-        <v>0.80555555555555503</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="X35" s="29">
         <v>34</v>
       </c>
       <c r="Y35">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z35">
-        <v>0.80555555555555503</v>
+        <v>0.75</v>
       </c>
       <c r="AA35" s="31">
         <v>34</v>
       </c>
-      <c r="AB35">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC35">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -14500,7 +13326,7 @@
         <v>12</v>
       </c>
       <c r="R36">
-        <v>0.72222222222222199</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="S36" s="7">
         <v>16</v>
@@ -14513,31 +13339,19 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="W36">
-        <v>0.47222222222222199</v>
+        <v>0.5</v>
       </c>
       <c r="X36" s="29">
         <v>35</v>
       </c>
       <c r="Y36">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z36">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA36" s="31">
         <v>35</v>
       </c>
-      <c r="AB36">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC36">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -14582,7 +13396,7 @@
         <v>13</v>
       </c>
       <c r="R37">
-        <v>0.83333333333333304</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="S37" s="9">
         <v>20</v>
@@ -14595,31 +13409,19 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <v>0.75</v>
-      </c>
-      <c r="W37">
-        <v>0.61111111111111105</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="X37" s="29">
         <v>36</v>
       </c>
       <c r="Y37">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z37">
         <v>0.61111111111111105</v>
       </c>
       <c r="AA37" s="31">
         <v>36</v>
       </c>
-      <c r="AB37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -14667,7 +13469,7 @@
         <v>14</v>
       </c>
       <c r="R38">
-        <v>0.69444444444444398</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="S38" s="7">
         <v>25</v>
@@ -14682,9 +13484,6 @@
       <c r="V38">
         <v>0.61111111111111105</v>
       </c>
-      <c r="W38">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X38">
         <v>37</v>
       </c>
@@ -14692,7 +13491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -14750,31 +13549,19 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W39">
-        <v>0.61111111111111105</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="X39" s="29">
         <v>38</v>
       </c>
       <c r="Y39">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z39">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="AA39" s="31">
         <v>38</v>
       </c>
-      <c r="AB39">
-        <v>0.75</v>
-      </c>
-      <c r="AC39">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -14819,7 +13606,7 @@
         <v>16</v>
       </c>
       <c r="R40">
-        <v>0.83333333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="S40" s="7">
         <v>31</v>
@@ -14832,31 +13619,19 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W40">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="X40" s="29">
         <v>39</v>
       </c>
       <c r="Y40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z40">
         <v>0.86111111111111105</v>
       </c>
       <c r="AA40" s="31">
         <v>39</v>
       </c>
-      <c r="AB40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC40">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -14904,7 +13679,7 @@
         <v>17</v>
       </c>
       <c r="R41">
-        <v>0.86666666666666603</v>
+        <v>0.93333333333333302</v>
       </c>
       <c r="S41" s="7">
         <v>9</v>
@@ -14917,10 +13692,7 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="W41">
-        <v>0.66666666666666596</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="X41" s="29">
         <v>40</v>
@@ -14928,14 +13700,11 @@
       <c r="Y41">
         <v>0.73333333333333295</v>
       </c>
-      <c r="Z41">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="AA41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -14960,7 +13729,7 @@
         <v>18</v>
       </c>
       <c r="R42">
-        <v>0.56666666666666599</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="S42" t="s">
         <v>56</v>
@@ -14971,14 +13740,20 @@
       <c r="U42" s="30">
         <v>41</v>
       </c>
+      <c r="V42">
+        <v>0.7</v>
+      </c>
       <c r="X42" s="29">
         <v>41</v>
       </c>
+      <c r="Y42">
+        <v>0.63333333333333297</v>
+      </c>
       <c r="AA42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -15026,7 +13801,7 @@
         <v>19</v>
       </c>
       <c r="R43">
-        <v>0.86666666666666603</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
@@ -15037,41 +13812,47 @@
       <c r="U43" s="30">
         <v>42</v>
       </c>
+      <c r="V43">
+        <v>0.53333333333333299</v>
+      </c>
       <c r="X43" s="29">
         <v>42</v>
       </c>
+      <c r="Y43">
+        <v>0.7</v>
+      </c>
       <c r="AA43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29">
       <c r="R44">
         <f>AVERAGE(R2:R43)</f>
-        <v>0.73730158730158657</v>
+        <v>0.75634920634920577</v>
       </c>
       <c r="V44">
         <f>AVERAGE(V2:V43)</f>
-        <v>0.64868055555555504</v>
-      </c>
-      <c r="W44">
+        <v>0.68287037037036968</v>
+      </c>
+      <c r="W44" t="e">
         <f>AVERAGE(W2:W43)</f>
-        <v>0.67534722222222165</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y44">
         <f>AVERAGE(Y2:Y43)</f>
-        <v>0.73003003003002953</v>
-      </c>
-      <c r="Z44">
+        <v>0.71310541310541276</v>
+      </c>
+      <c r="Z44" t="e">
         <f>AVERAGE(Z2:Z43)</f>
-        <v>0.70720720720720642</v>
-      </c>
-      <c r="AB44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB44" t="e">
         <f>AVERAGE(AB2:AB43)</f>
-        <v>0.73653198653198593</v>
-      </c>
-      <c r="AC44">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC44" t="e">
         <f>AVERAGE(AC2:AC43)</f>
-        <v>0.69865319865319819</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -15083,39 +13864,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16A8E3-8919-453D-ABD1-0B00F4C48563}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="21.5" customWidth="1"/>
-    <col min="19" max="19" width="6.875" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="29.625" customWidth="1"/>
-    <col min="25" max="25" width="21.875" customWidth="1"/>
-    <col min="26" max="26" width="29.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" customWidth="1"/>
-    <col min="29" max="29" width="29.625" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="23" max="23" width="29.6640625" customWidth="1"/>
+    <col min="25" max="25" width="21.83203125" customWidth="1"/>
+    <col min="26" max="26" width="29.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="29" max="29" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -15204,7 +13985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
@@ -15248,9 +14029,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="14"/>
-      <c r="R2" s="14">
-        <v>0.86111111111111105</v>
-      </c>
+      <c r="R2" s="14"/>
       <c r="S2">
         <v>22</v>
       </c>
@@ -15261,32 +14040,14 @@
       <c r="U2" s="30">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W2">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X2" s="29">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z2">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="AA2" s="31">
         <v>1</v>
       </c>
-      <c r="AB2">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC2">
-        <v>0.88888888888888795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
@@ -15330,9 +14091,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="14"/>
-      <c r="R3" s="14">
-        <v>0.83333333333333304</v>
-      </c>
+      <c r="R3" s="14"/>
       <c r="S3" s="3">
         <v>10</v>
       </c>
@@ -15343,32 +14102,14 @@
       <c r="U3" s="30">
         <v>2</v>
       </c>
-      <c r="V3">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W3">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="X3" s="29">
         <v>2</v>
       </c>
-      <c r="Y3">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z3">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="AA3" s="31">
         <v>2</v>
       </c>
-      <c r="AB3">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC3">
-        <v>0.80555555555555503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="28" t="s">
         <v>29</v>
       </c>
@@ -15415,9 +14156,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="14"/>
-      <c r="R4" s="14">
-        <v>0.77777777777777701</v>
-      </c>
+      <c r="R4" s="14"/>
       <c r="S4" s="7">
         <v>19</v>
       </c>
@@ -15428,32 +14167,14 @@
       <c r="U4" s="30">
         <v>3</v>
       </c>
-      <c r="V4">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="W4">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="X4" s="29">
         <v>3</v>
       </c>
-      <c r="Y4">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="Z4">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA4" s="31">
         <v>3</v>
       </c>
-      <c r="AB4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
@@ -15497,9 +14218,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="14"/>
-      <c r="R5" s="14">
-        <v>0.66666666666666596</v>
-      </c>
+      <c r="R5" s="14"/>
       <c r="S5" s="3">
         <v>17</v>
       </c>
@@ -15510,32 +14229,14 @@
       <c r="U5" s="30">
         <v>4</v>
       </c>
-      <c r="V5">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="W5">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="X5" s="29">
         <v>4</v>
       </c>
-      <c r="Y5">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z5">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="AA5" s="31">
         <v>4</v>
       </c>
-      <c r="AB5">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="AC5">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -15579,9 +14280,6 @@
         <v>5</v>
       </c>
       <c r="Q6" s="14"/>
-      <c r="R6">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="S6">
         <v>23</v>
       </c>
@@ -15592,32 +14290,14 @@
       <c r="U6" s="30">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W6">
-        <v>0.91666666666666596</v>
-      </c>
       <c r="X6" s="29">
         <v>5</v>
       </c>
-      <c r="Y6">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z6">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="AA6" s="31">
         <v>5</v>
       </c>
-      <c r="AB6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC6">
-        <v>0.88888888888888795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="28" t="s">
         <v>39</v>
       </c>
@@ -15661,9 +14341,6 @@
         <v>6</v>
       </c>
       <c r="Q7" s="14"/>
-      <c r="R7">
-        <v>0.75</v>
-      </c>
       <c r="S7" s="7">
         <v>14</v>
       </c>
@@ -15674,32 +14351,14 @@
       <c r="U7" s="30">
         <v>6</v>
       </c>
-      <c r="V7">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W7">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="X7" s="29">
         <v>6</v>
       </c>
-      <c r="Y7">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="Z7">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA7" s="31">
         <v>6</v>
       </c>
-      <c r="AB7">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC7">
-        <v>0.80555555555555503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -15743,9 +14402,6 @@
         <v>7</v>
       </c>
       <c r="Q8" s="14"/>
-      <c r="R8">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="S8" s="3">
         <v>9</v>
       </c>
@@ -15756,32 +14412,14 @@
       <c r="U8" s="30">
         <v>7</v>
       </c>
-      <c r="V8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W8">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="X8" s="29">
         <v>7</v>
       </c>
-      <c r="Y8">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z8">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="AA8" s="31">
         <v>7</v>
       </c>
-      <c r="AB8">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AC8">
-        <v>0.86111111111111105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
@@ -15825,9 +14463,6 @@
         <v>8</v>
       </c>
       <c r="Q9" s="14"/>
-      <c r="R9">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="S9" s="7">
         <v>18</v>
       </c>
@@ -15838,32 +14473,14 @@
       <c r="U9" s="30">
         <v>8</v>
       </c>
-      <c r="V9">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="W9">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="X9" s="29">
         <v>8</v>
       </c>
-      <c r="Y9">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Z9">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="AA9" s="31">
         <v>8</v>
       </c>
-      <c r="AB9">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC9">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="28" t="s">
         <v>49</v>
       </c>
@@ -15907,9 +14524,6 @@
         <v>9</v>
       </c>
       <c r="Q10" s="14"/>
-      <c r="R10">
-        <v>0.75</v>
-      </c>
       <c r="S10" s="7">
         <v>23</v>
       </c>
@@ -15920,32 +14534,14 @@
       <c r="U10" s="30">
         <v>9</v>
       </c>
-      <c r="V10">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W10">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="X10" s="29">
         <v>9</v>
       </c>
-      <c r="Y10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="Z10">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA10" s="31">
         <v>9</v>
       </c>
-      <c r="AB10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC10">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="28" t="s">
         <v>50</v>
       </c>
@@ -15989,9 +14585,6 @@
         <v>10</v>
       </c>
       <c r="Q11" s="14"/>
-      <c r="R11">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="S11" s="7">
         <v>10</v>
       </c>
@@ -16002,32 +14595,14 @@
       <c r="U11" s="30">
         <v>10</v>
       </c>
-      <c r="V11">
-        <v>0.75</v>
-      </c>
-      <c r="W11">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="X11" s="29">
         <v>10</v>
       </c>
-      <c r="Y11">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z11">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA11" s="31">
         <v>10</v>
       </c>
-      <c r="AB11">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC11">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="28" t="s">
         <v>54</v>
       </c>
@@ -16074,9 +14649,6 @@
         <v>11</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12">
-        <v>0.86666666666666603</v>
-      </c>
       <c r="S12" s="7">
         <v>8</v>
       </c>
@@ -16087,26 +14659,14 @@
       <c r="U12" s="30">
         <v>11</v>
       </c>
-      <c r="V12">
-        <v>0.7</v>
-      </c>
-      <c r="W12">
-        <v>0.73333333333333295</v>
-      </c>
       <c r="X12" s="29">
         <v>11</v>
       </c>
-      <c r="Y12">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="Z12">
-        <v>0.6</v>
-      </c>
       <c r="AA12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
@@ -16150,9 +14710,6 @@
         <v>12</v>
       </c>
       <c r="Q13" s="14"/>
-      <c r="R13">
-        <v>0.76666666666666605</v>
-      </c>
       <c r="S13" s="7">
         <v>13</v>
       </c>
@@ -16163,12 +14720,6 @@
       <c r="U13" s="30">
         <v>12</v>
       </c>
-      <c r="V13">
-        <v>0.36666666666666597</v>
-      </c>
-      <c r="W13">
-        <v>0.5</v>
-      </c>
       <c r="X13">
         <v>12</v>
       </c>
@@ -16176,7 +14727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="28" t="s">
         <v>65</v>
       </c>
@@ -16220,9 +14771,6 @@
         <v>13</v>
       </c>
       <c r="Q14" s="14"/>
-      <c r="R14">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="S14" s="7">
         <v>12</v>
       </c>
@@ -16233,26 +14781,14 @@
       <c r="U14" s="30">
         <v>13</v>
       </c>
-      <c r="V14">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W14">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X14" s="29">
         <v>13</v>
       </c>
-      <c r="Y14">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="Z14">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
@@ -16299,9 +14835,6 @@
         <v>14</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="R15">
-        <v>0.7</v>
-      </c>
       <c r="S15" s="7">
         <v>20</v>
       </c>
@@ -16312,26 +14845,14 @@
       <c r="U15" s="30">
         <v>14</v>
       </c>
-      <c r="V15">
-        <v>0.8</v>
-      </c>
-      <c r="W15">
-        <v>0.76666666666666605</v>
-      </c>
       <c r="X15" s="29">
         <v>14</v>
       </c>
-      <c r="Y15">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="Z15">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -16378,9 +14899,6 @@
         <v>15</v>
       </c>
       <c r="Q16" s="14"/>
-      <c r="R16">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="S16" s="9">
         <v>21</v>
       </c>
@@ -16391,32 +14909,14 @@
       <c r="U16" s="30">
         <v>15</v>
       </c>
-      <c r="V16">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="W16">
-        <v>0.47222222222222199</v>
-      </c>
       <c r="X16" s="29">
         <v>15</v>
       </c>
-      <c r="Y16">
-        <v>0.5</v>
-      </c>
-      <c r="Z16">
-        <v>0.44444444444444398</v>
-      </c>
       <c r="AA16" s="31">
         <v>15</v>
       </c>
-      <c r="AB16">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="AC16">
-        <v>0.47222222222222199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="28" t="s">
         <v>80</v>
       </c>
@@ -16460,9 +14960,6 @@
         <v>16</v>
       </c>
       <c r="Q17" s="14"/>
-      <c r="R17">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="S17" s="9">
         <v>13</v>
       </c>
@@ -16473,32 +14970,14 @@
       <c r="U17" s="30">
         <v>16</v>
       </c>
-      <c r="V17">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W17">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="X17" s="29">
         <v>16</v>
       </c>
-      <c r="Y17">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z17">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="AA17" s="31">
         <v>16</v>
       </c>
-      <c r="AB17">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC17">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="28" t="s">
         <v>84</v>
       </c>
@@ -16542,9 +15021,6 @@
         <v>17</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="S18" s="7">
         <v>0</v>
       </c>
@@ -16555,32 +15031,14 @@
       <c r="U18" s="30">
         <v>17</v>
       </c>
-      <c r="V18">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="W18">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="X18" s="29">
         <v>17</v>
       </c>
-      <c r="Y18">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z18">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="AA18" s="31">
         <v>17</v>
       </c>
-      <c r="AB18">
-        <v>0.75</v>
-      </c>
-      <c r="AC18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="28" t="s">
         <v>85</v>
       </c>
@@ -16624,9 +15082,6 @@
         <v>18</v>
       </c>
       <c r="Q19" s="14"/>
-      <c r="R19">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="S19" s="7">
         <v>28</v>
       </c>
@@ -16637,32 +15092,14 @@
       <c r="U19" s="30">
         <v>18</v>
       </c>
-      <c r="V19">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="W19">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="X19" s="29">
         <v>18</v>
       </c>
-      <c r="Y19">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z19">
-        <v>0.63888888888888795</v>
-      </c>
       <c r="AA19" s="31">
         <v>18</v>
       </c>
-      <c r="AB19">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC19">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="28" t="s">
         <v>88</v>
       </c>
@@ -16709,9 +15146,6 @@
         <v>19</v>
       </c>
       <c r="Q20" s="14"/>
-      <c r="R20">
-        <v>0.70833333333333304</v>
-      </c>
       <c r="S20" s="7">
         <v>13</v>
       </c>
@@ -16722,12 +15156,6 @@
       <c r="U20" s="30">
         <v>19</v>
       </c>
-      <c r="V20">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="W20">
-        <v>0.75</v>
-      </c>
       <c r="X20">
         <v>19</v>
       </c>
@@ -16735,7 +15163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="28" t="s">
         <v>91</v>
       </c>
@@ -16779,9 +15207,6 @@
         <v>20</v>
       </c>
       <c r="Q21" s="14"/>
-      <c r="R21">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="S21" s="7">
         <v>7</v>
       </c>
@@ -16792,32 +15217,14 @@
       <c r="U21" s="30">
         <v>20</v>
       </c>
-      <c r="V21">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W21">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="X21" s="29">
         <v>20</v>
       </c>
-      <c r="Y21">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z21">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="AA21" s="31">
         <v>20</v>
       </c>
-      <c r="AB21">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC21">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="27" t="s">
         <v>93</v>
       </c>
@@ -16861,9 +15268,6 @@
         <v>21</v>
       </c>
       <c r="Q22" s="14"/>
-      <c r="R22">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="S22" s="9">
         <f>SUM(E22:N22)</f>
         <v>23</v>
@@ -16875,32 +15279,14 @@
       <c r="U22" s="30">
         <v>21</v>
       </c>
-      <c r="V22">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
-      </c>
       <c r="X22" s="29">
         <v>21</v>
       </c>
-      <c r="Y22">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z22">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="AA22" s="31">
         <v>21</v>
       </c>
-      <c r="AB22">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC22">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="27" t="s">
         <v>94</v>
       </c>
@@ -16944,9 +15330,6 @@
         <v>22</v>
       </c>
       <c r="Q23" s="14"/>
-      <c r="R23">
-        <v>0.5</v>
-      </c>
       <c r="S23" s="9">
         <f>SUM(E23:N23)</f>
         <v>24</v>
@@ -16958,32 +15341,14 @@
       <c r="U23" s="30">
         <v>22</v>
       </c>
-      <c r="V23">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="W23">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X23" s="29">
         <v>22</v>
       </c>
-      <c r="Y23">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="Z23">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="AA23" s="31">
         <v>22</v>
       </c>
-      <c r="AB23">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC23">
-        <v>0.47222222222222199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="27" t="s">
         <v>95</v>
       </c>
@@ -17027,9 +15392,6 @@
         <v>23</v>
       </c>
       <c r="Q24" s="14"/>
-      <c r="R24">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="S24" s="9">
         <f>SUM(E24:N24)</f>
         <v>26</v>
@@ -17041,32 +15403,14 @@
       <c r="U24" s="30">
         <v>23</v>
       </c>
-      <c r="V24">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="W24">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X24" s="29">
         <v>23</v>
       </c>
-      <c r="Y24">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="Z24">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="AA24" s="31">
         <v>23</v>
       </c>
-      <c r="AB24">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="AC24">
-        <v>0.55555555555555503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
@@ -17110,9 +15454,6 @@
       <c r="Q25" s="14">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="S25" s="7">
         <v>11</v>
       </c>
@@ -17123,32 +15464,14 @@
       <c r="U25" s="30">
         <v>24</v>
       </c>
-      <c r="V25">
-        <v>0.75</v>
-      </c>
-      <c r="W25">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="X25" s="29">
         <v>24</v>
       </c>
-      <c r="Y25">
-        <v>0.75</v>
-      </c>
-      <c r="Z25">
-        <v>0.75</v>
-      </c>
       <c r="AA25" s="31">
         <v>24</v>
       </c>
-      <c r="AB25">
-        <v>0.75</v>
-      </c>
-      <c r="AC25">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="22" t="s">
         <v>105</v>
       </c>
@@ -17192,9 +15515,6 @@
       <c r="Q26" s="14">
         <v>2</v>
       </c>
-      <c r="R26">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="S26" s="7">
         <v>13</v>
       </c>
@@ -17205,32 +15525,14 @@
       <c r="U26" s="30">
         <v>25</v>
       </c>
-      <c r="V26">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W26">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="X26" s="29">
         <v>25</v>
       </c>
-      <c r="Y26">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z26">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA26" s="31">
         <v>25</v>
       </c>
-      <c r="AB26">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="AC26">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="22" t="s">
         <v>109</v>
       </c>
@@ -17274,9 +15576,6 @@
       <c r="Q27" s="14">
         <v>3</v>
       </c>
-      <c r="R27">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="S27" s="3">
         <v>25</v>
       </c>
@@ -17287,32 +15586,14 @@
       <c r="U27" s="30">
         <v>26</v>
       </c>
-      <c r="V27">
-        <v>0.75</v>
-      </c>
-      <c r="W27">
-        <v>0.75</v>
-      </c>
       <c r="X27" s="29">
         <v>26</v>
       </c>
-      <c r="Y27">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z27">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="AA27" s="31">
         <v>26</v>
       </c>
-      <c r="AB27">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="AC27">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -17356,9 +15637,6 @@
       <c r="Q28" s="14">
         <v>4</v>
       </c>
-      <c r="R28">
-        <v>0.80555555555555503</v>
-      </c>
       <c r="S28" s="7">
         <v>7</v>
       </c>
@@ -17369,32 +15647,14 @@
       <c r="U28" s="30">
         <v>27</v>
       </c>
-      <c r="V28">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W28">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X28" s="29">
         <v>27</v>
       </c>
-      <c r="Y28">
-        <v>0.75</v>
-      </c>
-      <c r="Z28">
-        <v>0.75</v>
-      </c>
       <c r="AA28" s="31">
         <v>27</v>
       </c>
-      <c r="AB28">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC28">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="22" t="s">
         <v>115</v>
       </c>
@@ -17438,9 +15698,6 @@
       <c r="Q29" s="14">
         <v>5</v>
       </c>
-      <c r="R29">
-        <v>0.63888888888888795</v>
-      </c>
       <c r="S29" s="7">
         <v>28</v>
       </c>
@@ -17451,32 +15708,14 @@
       <c r="U29" s="30">
         <v>28</v>
       </c>
-      <c r="V29">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="W29">
-        <v>0.5</v>
-      </c>
       <c r="X29" s="29">
         <v>28</v>
       </c>
-      <c r="Y29">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z29">
-        <v>0.52777777777777701</v>
-      </c>
       <c r="AA29" s="31">
         <v>28</v>
       </c>
-      <c r="AB29">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="AC29">
-        <v>0.52777777777777701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="22" t="s">
         <v>117</v>
       </c>
@@ -17520,9 +15759,6 @@
       <c r="Q30" s="14">
         <v>6</v>
       </c>
-      <c r="R30">
-        <v>0.75</v>
-      </c>
       <c r="S30" s="7">
         <v>14</v>
       </c>
@@ -17533,32 +15769,14 @@
       <c r="U30" s="30">
         <v>29</v>
       </c>
-      <c r="V30">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="W30">
-        <v>0.61111111111111105</v>
-      </c>
       <c r="X30" s="29">
         <v>29</v>
       </c>
-      <c r="Y30">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="Z30">
-        <v>0.75</v>
-      </c>
       <c r="AA30" s="31">
         <v>29</v>
       </c>
-      <c r="AB30">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="AC30">
-        <v>0.69444444444444398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="22" t="s">
         <v>119</v>
       </c>
@@ -17602,9 +15820,6 @@
       <c r="Q31" s="14">
         <v>7</v>
       </c>
-      <c r="R31">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="S31" s="7">
         <v>8</v>
       </c>
@@ -17615,32 +15830,14 @@
       <c r="U31" s="30">
         <v>30</v>
       </c>
-      <c r="V31">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="W31">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="X31" s="29">
         <v>30</v>
       </c>
-      <c r="Y31">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="Z31">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="AA31" s="31">
         <v>30</v>
       </c>
-      <c r="AB31">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC31">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="22" t="s">
         <v>120</v>
       </c>
@@ -17684,9 +15881,6 @@
       <c r="Q32" s="14">
         <v>8</v>
       </c>
-      <c r="R32">
-        <v>0.94444444444444398</v>
-      </c>
       <c r="S32" s="7">
         <v>13</v>
       </c>
@@ -17697,32 +15891,14 @@
       <c r="U32" s="30">
         <v>31</v>
       </c>
-      <c r="V32">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="W32">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="X32" s="29">
         <v>31</v>
       </c>
-      <c r="Y32">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="Z32">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="AA32" s="31">
         <v>31</v>
       </c>
-      <c r="AB32">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="AC32">
-        <v>0.91666666666666596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="22" t="s">
         <v>121</v>
       </c>
@@ -17766,9 +15942,6 @@
       <c r="Q33" s="14">
         <v>9</v>
       </c>
-      <c r="R33">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="S33" s="7">
         <v>10</v>
       </c>
@@ -17779,32 +15952,14 @@
       <c r="U33" s="30">
         <v>32</v>
       </c>
-      <c r="V33">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W33">
-        <v>0.91666666666666596</v>
-      </c>
       <c r="X33" s="29">
         <v>32</v>
       </c>
-      <c r="Y33">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="Z33">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="AA33" s="31">
         <v>32</v>
       </c>
-      <c r="AB33">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC33">
-        <v>0.94444444444444398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -17848,9 +16003,6 @@
       <c r="Q34" s="14">
         <v>10</v>
       </c>
-      <c r="R34">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="S34" s="7">
         <v>12</v>
       </c>
@@ -17861,32 +16013,14 @@
       <c r="U34" s="30">
         <v>33</v>
       </c>
-      <c r="V34">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="W34">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="X34" s="29">
         <v>33</v>
       </c>
-      <c r="Y34">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="Z34">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA34" s="31">
         <v>33</v>
       </c>
-      <c r="AB34">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AC34">
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="22" t="s">
         <v>123</v>
       </c>
@@ -17930,9 +16064,6 @@
       <c r="Q35" s="14">
         <v>11</v>
       </c>
-      <c r="R35">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="S35" s="7">
         <v>11</v>
       </c>
@@ -17943,32 +16074,14 @@
       <c r="U35" s="30">
         <v>34</v>
       </c>
-      <c r="V35">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="W35">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="X35" s="29">
         <v>34</v>
       </c>
-      <c r="Y35">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="Z35">
-        <v>0.69444444444444398</v>
-      </c>
       <c r="AA35" s="31">
         <v>34</v>
       </c>
-      <c r="AB35">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC35">
-        <v>0.72222222222222199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="22" t="s">
         <v>124</v>
       </c>
@@ -18012,9 +16125,6 @@
       <c r="Q36" s="14">
         <v>12</v>
       </c>
-      <c r="R36">
-        <v>0.75</v>
-      </c>
       <c r="S36" s="7">
         <v>16</v>
       </c>
@@ -18025,32 +16135,14 @@
       <c r="U36" s="30">
         <v>35</v>
       </c>
-      <c r="V36">
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="W36">
-        <v>0.55555555555555503</v>
-      </c>
       <c r="X36" s="29">
         <v>35</v>
       </c>
-      <c r="Y36">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="Z36">
-        <v>0.58333333333333304</v>
-      </c>
       <c r="AA36" s="31">
         <v>35</v>
       </c>
-      <c r="AB36">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC36">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="27" t="s">
         <v>125</v>
       </c>
@@ -18094,9 +16186,6 @@
       <c r="Q37" s="14">
         <v>13</v>
       </c>
-      <c r="R37">
-        <v>0.83333333333333304</v>
-      </c>
       <c r="S37" s="9">
         <v>20</v>
       </c>
@@ -18107,32 +16196,14 @@
       <c r="U37" s="30">
         <v>36</v>
       </c>
-      <c r="V37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="W37">
-        <v>0.88888888888888795</v>
-      </c>
       <c r="X37" s="29">
         <v>36</v>
       </c>
-      <c r="Y37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="Z37">
-        <v>0.86111111111111105</v>
-      </c>
       <c r="AA37" s="31">
         <v>36</v>
       </c>
-      <c r="AB37">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="AC37">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="28" t="s">
         <v>129</v>
       </c>
@@ -18179,9 +16250,6 @@
       <c r="Q38" s="14">
         <v>14</v>
       </c>
-      <c r="R38">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="S38" s="7">
         <v>25</v>
       </c>
@@ -18192,12 +16260,6 @@
       <c r="U38" s="30">
         <v>37</v>
       </c>
-      <c r="V38">
-        <v>0.75</v>
-      </c>
-      <c r="W38">
-        <v>0.75</v>
-      </c>
       <c r="X38">
         <v>37</v>
       </c>
@@ -18205,7 +16267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29">
       <c r="A39" s="22" t="s">
         <v>133</v>
       </c>
@@ -18249,9 +16311,6 @@
       <c r="Q39" s="14">
         <v>15</v>
       </c>
-      <c r="R39">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="S39" s="7">
         <v>16</v>
       </c>
@@ -18262,32 +16321,14 @@
       <c r="U39" s="30">
         <v>38</v>
       </c>
-      <c r="V39">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="W39">
-        <v>0.63888888888888795</v>
-      </c>
       <c r="X39" s="29">
         <v>38</v>
       </c>
-      <c r="Y39">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="Z39">
-        <v>0.75</v>
-      </c>
       <c r="AA39" s="31">
         <v>38</v>
       </c>
-      <c r="AB39">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="AC39">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
@@ -18331,9 +16372,6 @@
       <c r="Q40" s="14">
         <v>16</v>
       </c>
-      <c r="R40">
-        <v>0.72222222222222199</v>
-      </c>
       <c r="S40" s="7">
         <v>31</v>
       </c>
@@ -18344,32 +16382,14 @@
       <c r="U40" s="30">
         <v>39</v>
       </c>
-      <c r="V40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="W40">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="X40" s="29">
         <v>39</v>
       </c>
-      <c r="Y40">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="Z40">
-        <v>0.77777777777777701</v>
-      </c>
       <c r="AA40" s="31">
         <v>39</v>
       </c>
-      <c r="AB40">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="AC40">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
@@ -18416,9 +16436,6 @@
       <c r="Q41" s="14">
         <v>17</v>
       </c>
-      <c r="R41">
-        <v>0.93333333333333302</v>
-      </c>
       <c r="S41" s="7">
         <v>9</v>
       </c>
@@ -18429,26 +16446,14 @@
       <c r="U41" s="30">
         <v>40</v>
       </c>
-      <c r="V41">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="W41">
-        <v>0.73333333333333295</v>
-      </c>
       <c r="X41" s="29">
         <v>40</v>
       </c>
-      <c r="Y41">
-        <v>0.7</v>
-      </c>
-      <c r="Z41">
-        <v>0.73333333333333295</v>
-      </c>
       <c r="AA41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29">
       <c r="A42" s="28" t="s">
         <v>138</v>
       </c>
@@ -18472,9 +16477,6 @@
       <c r="Q42" s="14">
         <v>18</v>
       </c>
-      <c r="R42">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="S42" t="s">
         <v>56</v>
       </c>
@@ -18491,7 +16493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29">
       <c r="A43" s="27" t="s">
         <v>136</v>
       </c>
@@ -18538,9 +16540,6 @@
       <c r="Q43" s="14">
         <v>19</v>
       </c>
-      <c r="R43">
-        <v>0.6</v>
-      </c>
       <c r="S43" s="7" t="s">
         <v>56</v>
       </c>
@@ -18557,34 +16556,34 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="R45">
+    <row r="45" spans="1:29">
+      <c r="R45" t="e">
         <f>AVERAGE(R2:R44)</f>
-        <v>0.73921957671957617</v>
-      </c>
-      <c r="V45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" t="e">
         <f>AVERAGE(V2:V44)</f>
-        <v>0.7368749999999995</v>
-      </c>
-      <c r="W45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" t="e">
         <f>AVERAGE(W2:W44)</f>
-        <v>0.7245833333333328</v>
-      </c>
-      <c r="Y45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y45" t="e">
         <f t="shared" ref="Y45:AC45" si="1">AVERAGE(Y2:Y44)</f>
-        <v>0.74879879879879818</v>
-      </c>
-      <c r="Z45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z45" t="e">
         <f t="shared" si="1"/>
-        <v>0.71171171171171133</v>
-      </c>
-      <c r="AB45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" t="e">
         <f t="shared" si="1"/>
-        <v>0.72643097643097587</v>
-      </c>
-      <c r="AC45">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC45" t="e">
         <f t="shared" si="1"/>
-        <v>0.71296296296296247</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
